--- a/ProjectStuff/AWOME tables-V3.xlsx
+++ b/ProjectStuff/AWOME tables-V3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="11820" tabRatio="683"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="20490" windowHeight="7140" tabRatio="788" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Forms" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2811" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2812" uniqueCount="764">
   <si>
     <t>Field</t>
   </si>
@@ -2448,6 +2448,9 @@
   </si>
   <si>
     <t>Repeat group/Div with a "+" and "-"</t>
+  </si>
+  <si>
+    <t>Validate still , Finance screen clean up</t>
   </si>
 </sst>
 </file>
@@ -3602,6 +3605,179 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3614,9 +3790,6 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3662,182 +3835,7 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3847,12 +3845,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3862,6 +3861,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3880,24 +3883,14 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3907,29 +3900,45 @@
     <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3973,32 +3982,26 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -15259,7 +15262,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="'Enterprise Table'!$I$2" spid="_x0000_s8213"/>
+                  <a14:cameraTool cellRange="'Enterprise Table'!$I$2" spid="_x0000_s8216"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -27924,10 +27927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B31"/>
+  <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27935,7 +27938,7 @@
     <col min="1" max="1" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="117" t="s">
         <v>461</v>
       </c>
@@ -27943,23 +27946,26 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
         <v>462</v>
       </c>
       <c r="B3" s="118">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>463</v>
       </c>
       <c r="B4" s="118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="51" t="s">
         <v>464</v>
       </c>
@@ -27967,7 +27973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="s">
         <v>465</v>
       </c>
@@ -27975,16 +27981,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="119" t="s">
         <v>466</v>
       </c>
       <c r="B7" s="120">
         <f>AVERAGE(B3:B6)</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="117" t="s">
         <v>467</v>
       </c>
@@ -27992,7 +27998,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
         <v>468</v>
       </c>
@@ -28000,7 +28006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="51" t="s">
         <v>463</v>
       </c>
@@ -28008,7 +28014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="51" t="s">
         <v>464</v>
       </c>
@@ -28016,7 +28022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="51" t="s">
         <v>465</v>
       </c>
@@ -28024,7 +28030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="119" t="s">
         <v>466</v>
       </c>
@@ -28033,7 +28039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="117" t="s">
         <v>469</v>
       </c>
@@ -28161,7 +28167,7 @@
   </sheetPr>
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -28175,13 +28181,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="239" t="s">
         <v>502</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="252"/>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="241"/>
     </row>
     <row r="2" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -28194,10 +28200,10 @@
       <c r="A3" s="100" t="s">
         <v>503</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="359"/>
-      <c r="D3" s="359"/>
-      <c r="E3" s="297"/>
+      <c r="B3" s="271"/>
+      <c r="C3" s="378"/>
+      <c r="D3" s="378"/>
+      <c r="E3" s="272"/>
     </row>
     <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="136"/>
@@ -28207,68 +28213,68 @@
       <c r="E4" s="136"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="360" t="s">
+      <c r="A5" s="379" t="s">
         <v>504</v>
       </c>
-      <c r="B5" s="361"/>
+      <c r="B5" s="380"/>
       <c r="C5" s="136"/>
       <c r="D5" s="136"/>
       <c r="E5" s="136"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="362" t="s">
+      <c r="A6" s="381" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="362"/>
-      <c r="C6" s="362" t="s">
+      <c r="B6" s="381"/>
+      <c r="C6" s="381" t="s">
         <v>505</v>
       </c>
-      <c r="D6" s="362"/>
+      <c r="D6" s="381"/>
       <c r="E6" s="100" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="358"/>
-      <c r="B7" s="358"/>
-      <c r="C7" s="358"/>
-      <c r="D7" s="358"/>
+      <c r="A7" s="370"/>
+      <c r="B7" s="370"/>
+      <c r="C7" s="370"/>
+      <c r="D7" s="370"/>
       <c r="E7" s="138"/>
     </row>
     <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="358"/>
-      <c r="B8" s="358"/>
-      <c r="C8" s="358"/>
-      <c r="D8" s="358"/>
+      <c r="A8" s="370"/>
+      <c r="B8" s="370"/>
+      <c r="C8" s="370"/>
+      <c r="D8" s="370"/>
       <c r="E8" s="138"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="358"/>
-      <c r="B9" s="358"/>
-      <c r="C9" s="358"/>
-      <c r="D9" s="358"/>
+      <c r="A9" s="370"/>
+      <c r="B9" s="370"/>
+      <c r="C9" s="370"/>
+      <c r="D9" s="370"/>
       <c r="E9" s="138"/>
     </row>
     <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="358"/>
-      <c r="B10" s="358"/>
-      <c r="C10" s="358"/>
-      <c r="D10" s="358"/>
+      <c r="A10" s="370"/>
+      <c r="B10" s="370"/>
+      <c r="C10" s="370"/>
+      <c r="D10" s="370"/>
       <c r="E10" s="138"/>
     </row>
     <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="358"/>
-      <c r="B11" s="358"/>
-      <c r="C11" s="358"/>
-      <c r="D11" s="358"/>
+      <c r="A11" s="370"/>
+      <c r="B11" s="370"/>
+      <c r="C11" s="370"/>
+      <c r="D11" s="370"/>
       <c r="E11" s="138"/>
     </row>
     <row r="12" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="366"/>
-      <c r="B12" s="366"/>
-      <c r="C12" s="366"/>
-      <c r="D12" s="366"/>
-      <c r="E12" s="366"/>
+      <c r="A12" s="371"/>
+      <c r="B12" s="371"/>
+      <c r="C12" s="371"/>
+      <c r="D12" s="371"/>
+      <c r="E12" s="371"/>
     </row>
     <row r="13" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="139"/>
@@ -28312,34 +28318,34 @@
       <c r="E17" s="136"/>
     </row>
     <row r="18" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="363" t="s">
+      <c r="A18" s="359" t="s">
         <v>509</v>
       </c>
-      <c r="B18" s="365"/>
+      <c r="B18" s="360"/>
       <c r="C18" s="136"/>
       <c r="D18" s="136"/>
       <c r="E18" s="136"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="367"/>
-      <c r="B19" s="368"/>
-      <c r="C19" s="368"/>
-      <c r="D19" s="368"/>
-      <c r="E19" s="369"/>
+      <c r="A19" s="363"/>
+      <c r="B19" s="364"/>
+      <c r="C19" s="364"/>
+      <c r="D19" s="364"/>
+      <c r="E19" s="365"/>
     </row>
     <row r="20" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="370"/>
-      <c r="B20" s="371"/>
-      <c r="C20" s="371"/>
-      <c r="D20" s="371"/>
-      <c r="E20" s="372"/>
+      <c r="A20" s="372"/>
+      <c r="B20" s="373"/>
+      <c r="C20" s="373"/>
+      <c r="D20" s="373"/>
+      <c r="E20" s="374"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="373"/>
-      <c r="B21" s="374"/>
-      <c r="C21" s="374"/>
-      <c r="D21" s="374"/>
-      <c r="E21" s="375"/>
+      <c r="A21" s="375"/>
+      <c r="B21" s="376"/>
+      <c r="C21" s="376"/>
+      <c r="D21" s="376"/>
+      <c r="E21" s="377"/>
     </row>
     <row r="22" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="136"/>
@@ -28349,34 +28355,34 @@
       <c r="E22" s="136"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="363" t="s">
+      <c r="A23" s="359" t="s">
         <v>510</v>
       </c>
-      <c r="B23" s="365"/>
+      <c r="B23" s="360"/>
       <c r="C23" s="136"/>
       <c r="D23" s="136"/>
       <c r="E23" s="136"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="367"/>
-      <c r="B24" s="368"/>
-      <c r="C24" s="368"/>
-      <c r="D24" s="368"/>
-      <c r="E24" s="369"/>
+      <c r="A24" s="363"/>
+      <c r="B24" s="364"/>
+      <c r="C24" s="364"/>
+      <c r="D24" s="364"/>
+      <c r="E24" s="365"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="370"/>
-      <c r="B25" s="371"/>
-      <c r="C25" s="371"/>
-      <c r="D25" s="371"/>
-      <c r="E25" s="372"/>
+      <c r="A25" s="372"/>
+      <c r="B25" s="373"/>
+      <c r="C25" s="373"/>
+      <c r="D25" s="373"/>
+      <c r="E25" s="374"/>
     </row>
     <row r="26" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="373"/>
-      <c r="B26" s="374"/>
-      <c r="C26" s="374"/>
-      <c r="D26" s="374"/>
-      <c r="E26" s="375"/>
+      <c r="A26" s="375"/>
+      <c r="B26" s="376"/>
+      <c r="C26" s="376"/>
+      <c r="D26" s="376"/>
+      <c r="E26" s="377"/>
     </row>
     <row r="27" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="136"/>
@@ -28386,34 +28392,34 @@
       <c r="E27" s="136"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="363" t="s">
+      <c r="A28" s="359" t="s">
         <v>511</v>
       </c>
-      <c r="B28" s="365"/>
+      <c r="B28" s="360"/>
       <c r="C28" s="136"/>
       <c r="D28" s="136"/>
       <c r="E28" s="136"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="367"/>
-      <c r="B29" s="368"/>
-      <c r="C29" s="368"/>
-      <c r="D29" s="368"/>
-      <c r="E29" s="369"/>
+      <c r="A29" s="363"/>
+      <c r="B29" s="364"/>
+      <c r="C29" s="364"/>
+      <c r="D29" s="364"/>
+      <c r="E29" s="365"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="370"/>
-      <c r="B30" s="371"/>
-      <c r="C30" s="371"/>
-      <c r="D30" s="371"/>
-      <c r="E30" s="372"/>
+      <c r="A30" s="372"/>
+      <c r="B30" s="373"/>
+      <c r="C30" s="373"/>
+      <c r="D30" s="373"/>
+      <c r="E30" s="374"/>
     </row>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="373"/>
-      <c r="B31" s="374"/>
-      <c r="C31" s="374"/>
-      <c r="D31" s="374"/>
-      <c r="E31" s="375"/>
+      <c r="A31" s="375"/>
+      <c r="B31" s="376"/>
+      <c r="C31" s="376"/>
+      <c r="D31" s="376"/>
+      <c r="E31" s="377"/>
     </row>
     <row r="32" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="145"/>
@@ -28423,34 +28429,34 @@
       <c r="E32" s="145"/>
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="363" t="s">
+      <c r="A33" s="359" t="s">
         <v>512</v>
       </c>
-      <c r="B33" s="365"/>
+      <c r="B33" s="360"/>
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
       <c r="E33" s="136"/>
     </row>
     <row r="34" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="367"/>
-      <c r="B34" s="368"/>
-      <c r="C34" s="368"/>
-      <c r="D34" s="368"/>
-      <c r="E34" s="369"/>
+      <c r="A34" s="363"/>
+      <c r="B34" s="364"/>
+      <c r="C34" s="364"/>
+      <c r="D34" s="364"/>
+      <c r="E34" s="365"/>
     </row>
     <row r="35" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="370"/>
-      <c r="B35" s="371"/>
-      <c r="C35" s="371"/>
-      <c r="D35" s="371"/>
-      <c r="E35" s="372"/>
+      <c r="A35" s="372"/>
+      <c r="B35" s="373"/>
+      <c r="C35" s="373"/>
+      <c r="D35" s="373"/>
+      <c r="E35" s="374"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="373"/>
-      <c r="B36" s="374"/>
-      <c r="C36" s="374"/>
-      <c r="D36" s="374"/>
-      <c r="E36" s="375"/>
+      <c r="A36" s="375"/>
+      <c r="B36" s="376"/>
+      <c r="C36" s="376"/>
+      <c r="D36" s="376"/>
+      <c r="E36" s="377"/>
     </row>
     <row r="37" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="136"/>
@@ -28460,21 +28466,21 @@
       <c r="E37" s="136"/>
     </row>
     <row r="38" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="363" t="s">
+      <c r="A38" s="359" t="s">
         <v>513</v>
       </c>
-      <c r="B38" s="364"/>
-      <c r="C38" s="364"/>
-      <c r="D38" s="365"/>
+      <c r="B38" s="369"/>
+      <c r="C38" s="369"/>
+      <c r="D38" s="360"/>
       <c r="E38" s="136"/>
     </row>
     <row r="39" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="325" t="s">
+      <c r="A39" s="226" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="326"/>
-      <c r="C39" s="326"/>
-      <c r="D39" s="327"/>
+      <c r="B39" s="227"/>
+      <c r="C39" s="227"/>
+      <c r="D39" s="228"/>
       <c r="E39" s="136"/>
     </row>
     <row r="40" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28485,12 +28491,12 @@
       <c r="E40" s="136"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="325" t="s">
+      <c r="A41" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="B41" s="326"/>
-      <c r="C41" s="326"/>
-      <c r="D41" s="327"/>
+      <c r="B41" s="227"/>
+      <c r="C41" s="227"/>
+      <c r="D41" s="228"/>
       <c r="E41" s="136"/>
     </row>
     <row r="42" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -28504,29 +28510,29 @@
       <c r="A43" s="148" t="s">
         <v>265</v>
       </c>
-      <c r="B43" s="367"/>
-      <c r="C43" s="368"/>
-      <c r="D43" s="369"/>
+      <c r="B43" s="363"/>
+      <c r="C43" s="364"/>
+      <c r="D43" s="365"/>
       <c r="E43" s="136"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="376" t="s">
+      <c r="A44" s="366" t="s">
         <v>514</v>
       </c>
-      <c r="B44" s="377"/>
-      <c r="C44" s="377"/>
-      <c r="D44" s="377"/>
-      <c r="E44" s="378"/>
+      <c r="B44" s="367"/>
+      <c r="C44" s="367"/>
+      <c r="D44" s="367"/>
+      <c r="E44" s="368"/>
     </row>
     <row r="45" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="268" t="s">
+      <c r="A46" s="230" t="s">
         <v>515</v>
       </c>
-      <c r="B46" s="269"/>
-      <c r="C46" s="269"/>
-      <c r="D46" s="269"/>
-      <c r="E46" s="270"/>
+      <c r="B46" s="231"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="231"/>
+      <c r="E46" s="232"/>
     </row>
     <row r="47" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="149"/>
@@ -28536,10 +28542,10 @@
       <c r="E47" s="149"/>
     </row>
     <row r="48" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="363" t="s">
+      <c r="A48" s="359" t="s">
         <v>516</v>
       </c>
-      <c r="B48" s="365"/>
+      <c r="B48" s="360"/>
       <c r="C48" s="136"/>
       <c r="D48" s="138" t="s">
         <v>304</v>
@@ -28554,10 +28560,10 @@
       <c r="E49" s="136"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="363" t="s">
+      <c r="A50" s="359" t="s">
         <v>517</v>
       </c>
-      <c r="B50" s="365"/>
+      <c r="B50" s="360"/>
       <c r="C50" s="136"/>
       <c r="D50" s="138"/>
       <c r="E50" s="136"/>
@@ -28570,10 +28576,10 @@
       <c r="E51" s="136"/>
     </row>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="363" t="s">
+      <c r="A52" s="359" t="s">
         <v>518</v>
       </c>
-      <c r="B52" s="365"/>
+      <c r="B52" s="360"/>
       <c r="C52" s="136"/>
       <c r="D52" s="138"/>
       <c r="E52" s="136"/>
@@ -28586,10 +28592,10 @@
       <c r="E53" s="136"/>
     </row>
     <row r="54" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="363" t="s">
+      <c r="A54" s="359" t="s">
         <v>519</v>
       </c>
-      <c r="B54" s="365"/>
+      <c r="B54" s="360"/>
       <c r="C54" s="136"/>
       <c r="D54" s="138" t="s">
         <v>304</v>
@@ -28604,10 +28610,10 @@
       <c r="E55" s="136"/>
     </row>
     <row r="56" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="363" t="s">
+      <c r="A56" s="359" t="s">
         <v>520</v>
       </c>
-      <c r="B56" s="365"/>
+      <c r="B56" s="360"/>
       <c r="C56" s="136"/>
       <c r="D56" s="138" t="s">
         <v>304</v>
@@ -28622,10 +28628,10 @@
       <c r="E57" s="136"/>
     </row>
     <row r="58" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="363" t="s">
+      <c r="A58" s="359" t="s">
         <v>521</v>
       </c>
-      <c r="B58" s="365"/>
+      <c r="B58" s="360"/>
       <c r="C58" s="136"/>
       <c r="D58" s="138" t="s">
         <v>304</v>
@@ -28640,10 +28646,10 @@
       <c r="E59" s="136"/>
     </row>
     <row r="60" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="363" t="s">
+      <c r="A60" s="359" t="s">
         <v>522</v>
       </c>
-      <c r="B60" s="365"/>
+      <c r="B60" s="360"/>
       <c r="C60" s="136"/>
       <c r="D60" s="138" t="s">
         <v>304</v>
@@ -28658,10 +28664,10 @@
       <c r="E61" s="136"/>
     </row>
     <row r="62" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="363" t="s">
+      <c r="A62" s="359" t="s">
         <v>523</v>
       </c>
-      <c r="B62" s="365"/>
+      <c r="B62" s="360"/>
       <c r="C62" s="136"/>
       <c r="D62" s="138" t="s">
         <v>304</v>
@@ -28676,10 +28682,10 @@
       <c r="E63" s="136"/>
     </row>
     <row r="64" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="363" t="s">
+      <c r="A64" s="359" t="s">
         <v>524</v>
       </c>
-      <c r="B64" s="365"/>
+      <c r="B64" s="360"/>
       <c r="C64" s="136"/>
       <c r="D64" s="138" t="s">
         <v>304</v>
@@ -28694,13 +28700,13 @@
       <c r="E65" s="136"/>
     </row>
     <row r="66" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="268" t="s">
+      <c r="A66" s="230" t="s">
         <v>525</v>
       </c>
-      <c r="B66" s="269"/>
-      <c r="C66" s="269"/>
-      <c r="D66" s="269"/>
-      <c r="E66" s="270"/>
+      <c r="B66" s="231"/>
+      <c r="C66" s="231"/>
+      <c r="D66" s="231"/>
+      <c r="E66" s="232"/>
     </row>
     <row r="67" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="149"/>
@@ -28710,10 +28716,10 @@
       <c r="E67" s="149"/>
     </row>
     <row r="68" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="363" t="s">
+      <c r="A68" s="359" t="s">
         <v>526</v>
       </c>
-      <c r="B68" s="365"/>
+      <c r="B68" s="360"/>
       <c r="C68" s="136"/>
       <c r="D68" s="138" t="s">
         <v>304</v>
@@ -28728,10 +28734,10 @@
       <c r="E69" s="136"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="363" t="s">
+      <c r="A70" s="359" t="s">
         <v>527</v>
       </c>
-      <c r="B70" s="365"/>
+      <c r="B70" s="360"/>
       <c r="C70" s="136"/>
       <c r="D70" s="138" t="s">
         <v>304</v>
@@ -28746,10 +28752,10 @@
       <c r="E71" s="136"/>
     </row>
     <row r="72" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="363" t="s">
+      <c r="A72" s="359" t="s">
         <v>528</v>
       </c>
-      <c r="B72" s="365"/>
+      <c r="B72" s="360"/>
       <c r="C72" s="136"/>
       <c r="D72" s="138" t="s">
         <v>304</v>
@@ -28764,10 +28770,10 @@
       <c r="E73" s="136"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="363" t="s">
+      <c r="A74" s="359" t="s">
         <v>529</v>
       </c>
-      <c r="B74" s="365"/>
+      <c r="B74" s="360"/>
       <c r="C74" s="136"/>
       <c r="D74" s="138" t="s">
         <v>304</v>
@@ -28782,10 +28788,10 @@
       <c r="E75" s="136"/>
     </row>
     <row r="76" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="363" t="s">
+      <c r="A76" s="359" t="s">
         <v>530</v>
       </c>
-      <c r="B76" s="365"/>
+      <c r="B76" s="360"/>
       <c r="C76" s="136"/>
       <c r="D76" s="138" t="s">
         <v>304</v>
@@ -28800,10 +28806,10 @@
       <c r="E77" s="136"/>
     </row>
     <row r="78" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="363" t="s">
+      <c r="A78" s="359" t="s">
         <v>531</v>
       </c>
-      <c r="B78" s="365"/>
+      <c r="B78" s="360"/>
       <c r="C78" s="136"/>
       <c r="D78" s="138" t="s">
         <v>304</v>
@@ -28818,10 +28824,10 @@
       <c r="E79" s="136"/>
     </row>
     <row r="80" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="379" t="s">
+      <c r="A80" s="361" t="s">
         <v>532</v>
       </c>
-      <c r="B80" s="380"/>
+      <c r="B80" s="362"/>
       <c r="C80" s="136"/>
       <c r="D80" s="138" t="s">
         <v>304</v>
@@ -28836,10 +28842,10 @@
       <c r="E81" s="136"/>
     </row>
     <row r="82" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="363" t="s">
+      <c r="A82" s="359" t="s">
         <v>533</v>
       </c>
-      <c r="B82" s="365"/>
+      <c r="B82" s="360"/>
       <c r="C82" s="136"/>
       <c r="D82" s="138" t="s">
         <v>304</v>
@@ -28854,10 +28860,10 @@
       <c r="E83" s="136"/>
     </row>
     <row r="84" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="363" t="s">
+      <c r="A84" s="359" t="s">
         <v>534</v>
       </c>
-      <c r="B84" s="365"/>
+      <c r="B84" s="360"/>
       <c r="C84" s="136"/>
       <c r="D84" s="138" t="s">
         <v>304</v>
@@ -28868,29 +28874,29 @@
     <row r="86" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="381"/>
-      <c r="B88" s="381"/>
-      <c r="C88" s="381"/>
-      <c r="D88" s="381"/>
-      <c r="E88" s="381"/>
+      <c r="A88" s="358"/>
+      <c r="B88" s="358"/>
+      <c r="C88" s="358"/>
+      <c r="D88" s="358"/>
+      <c r="E88" s="358"/>
     </row>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="93" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="328" t="s">
+      <c r="A93" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="B93" s="328"/>
-      <c r="C93" s="328"/>
-      <c r="D93" s="328"/>
-      <c r="E93" s="328"/>
+      <c r="B93" s="229"/>
+      <c r="C93" s="229"/>
+      <c r="D93" s="229"/>
+      <c r="E93" s="229"/>
     </row>
     <row r="94" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B94" s="220"/>
-      <c r="C94" s="221"/>
-      <c r="D94" s="222"/>
+      <c r="B94" s="217"/>
+      <c r="C94" s="218"/>
+      <c r="D94" s="219"/>
     </row>
     <row r="95" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
@@ -28902,9 +28908,9 @@
       <c r="A96" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B96" s="220"/>
-      <c r="C96" s="221"/>
-      <c r="D96" s="222"/>
+      <c r="B96" s="217"/>
+      <c r="C96" s="218"/>
+      <c r="D96" s="219"/>
     </row>
     <row r="97" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
@@ -28916,9 +28922,9 @@
       <c r="A98" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B98" s="220"/>
-      <c r="C98" s="221"/>
-      <c r="D98" s="222"/>
+      <c r="B98" s="217"/>
+      <c r="C98" s="218"/>
+      <c r="D98" s="219"/>
     </row>
     <row r="99" spans="1:4" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
@@ -28930,9 +28936,9 @@
       <c r="A100" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B100" s="220"/>
-      <c r="C100" s="221"/>
-      <c r="D100" s="222"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="218"/>
+      <c r="D100" s="219"/>
     </row>
     <row r="101" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
@@ -28944,9 +28950,9 @@
       <c r="A102" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B102" s="220"/>
-      <c r="C102" s="221"/>
-      <c r="D102" s="222"/>
+      <c r="B102" s="217"/>
+      <c r="C102" s="218"/>
+      <c r="D102" s="219"/>
     </row>
     <row r="103" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
@@ -28958,9 +28964,9 @@
       <c r="A104" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B104" s="220"/>
-      <c r="C104" s="221"/>
-      <c r="D104" s="222"/>
+      <c r="B104" s="217"/>
+      <c r="C104" s="218"/>
+      <c r="D104" s="219"/>
     </row>
     <row r="105" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
@@ -28972,9 +28978,9 @@
       <c r="A106" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B106" s="220"/>
-      <c r="C106" s="221"/>
-      <c r="D106" s="222"/>
+      <c r="B106" s="217"/>
+      <c r="C106" s="218"/>
+      <c r="D106" s="219"/>
     </row>
     <row r="107" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
@@ -28986,9 +28992,9 @@
       <c r="A108" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B108" s="220"/>
-      <c r="C108" s="221"/>
-      <c r="D108" s="222"/>
+      <c r="B108" s="217"/>
+      <c r="C108" s="218"/>
+      <c r="D108" s="219"/>
     </row>
     <row r="109" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
@@ -29000,9 +29006,9 @@
       <c r="A110" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B110" s="220"/>
-      <c r="C110" s="221"/>
-      <c r="D110" s="222"/>
+      <c r="B110" s="217"/>
+      <c r="C110" s="218"/>
+      <c r="D110" s="219"/>
     </row>
     <row r="111" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
@@ -29014,9 +29020,9 @@
       <c r="A112" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B112" s="220"/>
-      <c r="C112" s="221"/>
-      <c r="D112" s="222"/>
+      <c r="B112" s="217"/>
+      <c r="C112" s="218"/>
+      <c r="D112" s="219"/>
     </row>
     <row r="113" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -29028,9 +29034,9 @@
       <c r="A114" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B114" s="220"/>
-      <c r="C114" s="221"/>
-      <c r="D114" s="222"/>
+      <c r="B114" s="217"/>
+      <c r="C114" s="218"/>
+      <c r="D114" s="219"/>
     </row>
     <row r="115" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
@@ -29042,9 +29048,9 @@
       <c r="A116" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B116" s="220"/>
-      <c r="C116" s="221"/>
-      <c r="D116" s="222"/>
+      <c r="B116" s="217"/>
+      <c r="C116" s="218"/>
+      <c r="D116" s="219"/>
     </row>
     <row r="117" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
@@ -29056,9 +29062,9 @@
       <c r="A118" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B118" s="220"/>
-      <c r="C118" s="221"/>
-      <c r="D118" s="222"/>
+      <c r="B118" s="217"/>
+      <c r="C118" s="218"/>
+      <c r="D118" s="219"/>
     </row>
     <row r="119" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
@@ -29070,9 +29076,9 @@
       <c r="A120" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B120" s="220"/>
-      <c r="C120" s="221"/>
-      <c r="D120" s="222"/>
+      <c r="B120" s="217"/>
+      <c r="C120" s="218"/>
+      <c r="D120" s="219"/>
     </row>
     <row r="121" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
@@ -29084,9 +29090,9 @@
       <c r="A122" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B122" s="220"/>
-      <c r="C122" s="221"/>
-      <c r="D122" s="222"/>
+      <c r="B122" s="217"/>
+      <c r="C122" s="218"/>
+      <c r="D122" s="219"/>
     </row>
     <row r="123" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
@@ -29096,11 +29102,55 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:E21"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:E26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:E31"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:E36"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
     <mergeCell ref="B112:D112"/>
     <mergeCell ref="A88:E88"/>
     <mergeCell ref="A93:E93"/>
@@ -29113,55 +29163,11 @@
     <mergeCell ref="B106:D106"/>
     <mergeCell ref="B108:D108"/>
     <mergeCell ref="B110:D110"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A66:E66"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:E21"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:E26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:E31"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:E36"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B122:D122"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29176,7 +29182,7 @@
   </sheetPr>
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -29190,13 +29196,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="412" t="s">
+      <c r="A1" s="382" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="413"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="414"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="384"/>
     </row>
     <row r="2" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="153"/>
@@ -29214,11 +29220,11 @@
       <c r="E3" s="157"/>
     </row>
     <row r="4" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="415"/>
-      <c r="B4" s="416"/>
-      <c r="C4" s="416"/>
-      <c r="D4" s="416"/>
-      <c r="E4" s="417"/>
+      <c r="A4" s="385"/>
+      <c r="B4" s="386"/>
+      <c r="C4" s="386"/>
+      <c r="D4" s="386"/>
+      <c r="E4" s="387"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="158" t="s">
@@ -29302,31 +29308,31 @@
       <c r="D14" s="136"/>
     </row>
     <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="409" t="s">
+      <c r="A15" s="388" t="s">
         <v>546</v>
       </c>
-      <c r="B15" s="330" t="s">
+      <c r="B15" s="215" t="s">
         <v>547</v>
       </c>
-      <c r="C15" s="330"/>
-      <c r="D15" s="330"/>
-      <c r="E15" s="331"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="216"/>
     </row>
     <row r="16" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="410"/>
+      <c r="A16" s="389"/>
       <c r="B16" s="125"/>
       <c r="C16" s="125"/>
       <c r="D16" s="125"/>
       <c r="E16" s="125"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="411"/>
-      <c r="B17" s="329" t="s">
+      <c r="A17" s="390"/>
+      <c r="B17" s="214" t="s">
         <v>548</v>
       </c>
-      <c r="C17" s="330"/>
-      <c r="D17" s="330"/>
-      <c r="E17" s="331"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="216"/>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="145"/>
@@ -29338,12 +29344,12 @@
       <c r="A19" s="159" t="s">
         <v>549</v>
       </c>
-      <c r="B19" s="330" t="s">
+      <c r="B19" s="215" t="s">
         <v>550</v>
       </c>
-      <c r="C19" s="330"/>
-      <c r="D19" s="330"/>
-      <c r="E19" s="331"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="216"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="160"/>
@@ -29353,31 +29359,31 @@
       <c r="E20" s="42"/>
     </row>
     <row r="21" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="409" t="s">
+      <c r="A21" s="388" t="s">
         <v>551</v>
       </c>
-      <c r="B21" s="330" t="s">
+      <c r="B21" s="215" t="s">
         <v>552</v>
       </c>
-      <c r="C21" s="330"/>
-      <c r="D21" s="330"/>
-      <c r="E21" s="331"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="216"/>
     </row>
     <row r="22" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="410"/>
+      <c r="A22" s="389"/>
       <c r="B22" s="125"/>
       <c r="C22" s="125"/>
       <c r="D22" s="125"/>
       <c r="E22" s="125"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="411"/>
-      <c r="B23" s="330" t="s">
+      <c r="A23" s="390"/>
+      <c r="B23" s="215" t="s">
         <v>553</v>
       </c>
-      <c r="C23" s="330"/>
-      <c r="D23" s="330"/>
-      <c r="E23" s="331"/>
+      <c r="C23" s="215"/>
+      <c r="D23" s="215"/>
+      <c r="E23" s="216"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="145"/>
@@ -29437,12 +29443,12 @@
       <c r="A31" s="391" t="s">
         <v>559</v>
       </c>
-      <c r="B31" s="329" t="s">
+      <c r="B31" s="214" t="s">
         <v>560</v>
       </c>
-      <c r="C31" s="330"/>
-      <c r="D31" s="330"/>
-      <c r="E31" s="331"/>
+      <c r="C31" s="215"/>
+      <c r="D31" s="215"/>
+      <c r="E31" s="216"/>
     </row>
     <row r="32" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="392"/>
@@ -29452,12 +29458,12 @@
     </row>
     <row r="33" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="393"/>
-      <c r="B33" s="329" t="s">
+      <c r="B33" s="214" t="s">
         <v>561</v>
       </c>
-      <c r="C33" s="330"/>
-      <c r="D33" s="330"/>
-      <c r="E33" s="331"/>
+      <c r="C33" s="215"/>
+      <c r="D33" s="215"/>
+      <c r="E33" s="216"/>
     </row>
     <row r="34" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="145"/>
@@ -29587,19 +29593,19 @@
       <c r="A49" s="137" t="s">
         <v>245</v>
       </c>
-      <c r="B49" s="296"/>
-      <c r="C49" s="359"/>
-      <c r="D49" s="359"/>
-      <c r="E49" s="297"/>
+      <c r="B49" s="271"/>
+      <c r="C49" s="378"/>
+      <c r="D49" s="378"/>
+      <c r="E49" s="272"/>
     </row>
     <row r="50" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="382" t="s">
+      <c r="A50" s="410" t="s">
         <v>575</v>
       </c>
-      <c r="B50" s="383"/>
-      <c r="C50" s="383"/>
-      <c r="D50" s="383"/>
-      <c r="E50" s="384"/>
+      <c r="B50" s="411"/>
+      <c r="C50" s="411"/>
+      <c r="D50" s="411"/>
+      <c r="E50" s="412"/>
     </row>
     <row r="51" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -29609,10 +29615,10 @@
       <c r="B52" s="168"/>
     </row>
     <row r="53" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="386" t="s">
+      <c r="A53" s="413" t="s">
         <v>576</v>
       </c>
-      <c r="B53" s="387"/>
+      <c r="B53" s="414"/>
       <c r="D53" s="51" t="s">
         <v>577</v>
       </c>
@@ -29704,66 +29710,66 @@
       <c r="A69" s="52"/>
     </row>
     <row r="70" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="388" t="s">
+      <c r="A70" s="415" t="s">
         <v>582</v>
       </c>
-      <c r="B70" s="389"/>
-      <c r="C70" s="389"/>
-      <c r="D70" s="389"/>
-      <c r="E70" s="390"/>
+      <c r="B70" s="416"/>
+      <c r="C70" s="416"/>
+      <c r="D70" s="416"/>
+      <c r="E70" s="417"/>
     </row>
     <row r="71" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="72" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="360" t="s">
+      <c r="A72" s="379" t="s">
         <v>583</v>
       </c>
-      <c r="B72" s="385"/>
-      <c r="C72" s="385"/>
-      <c r="D72" s="361"/>
+      <c r="B72" s="409"/>
+      <c r="C72" s="409"/>
+      <c r="D72" s="380"/>
       <c r="E72" s="169" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="329"/>
-      <c r="B73" s="330"/>
-      <c r="C73" s="330"/>
-      <c r="D73" s="331"/>
+      <c r="A73" s="214"/>
+      <c r="B73" s="215"/>
+      <c r="C73" s="215"/>
+      <c r="D73" s="216"/>
       <c r="E73" s="51"/>
     </row>
     <row r="74" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="329"/>
-      <c r="B74" s="330"/>
-      <c r="C74" s="330"/>
-      <c r="D74" s="331"/>
+      <c r="A74" s="214"/>
+      <c r="B74" s="215"/>
+      <c r="C74" s="215"/>
+      <c r="D74" s="216"/>
       <c r="E74" s="51"/>
     </row>
     <row r="75" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="296"/>
-      <c r="B75" s="359"/>
-      <c r="C75" s="359"/>
-      <c r="D75" s="297"/>
+      <c r="A75" s="271"/>
+      <c r="B75" s="378"/>
+      <c r="C75" s="378"/>
+      <c r="D75" s="272"/>
       <c r="E75" s="51"/>
     </row>
     <row r="76" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="329"/>
-      <c r="B76" s="330"/>
-      <c r="C76" s="330"/>
-      <c r="D76" s="331"/>
+      <c r="A76" s="214"/>
+      <c r="B76" s="215"/>
+      <c r="C76" s="215"/>
+      <c r="D76" s="216"/>
       <c r="E76" s="51"/>
     </row>
     <row r="77" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="329"/>
-      <c r="B77" s="330"/>
-      <c r="C77" s="330"/>
-      <c r="D77" s="331"/>
+      <c r="A77" s="214"/>
+      <c r="B77" s="215"/>
+      <c r="C77" s="215"/>
+      <c r="D77" s="216"/>
       <c r="E77" s="51"/>
     </row>
     <row r="78" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="329"/>
-      <c r="B78" s="330"/>
-      <c r="C78" s="330"/>
-      <c r="D78" s="331"/>
+      <c r="A78" s="214"/>
+      <c r="B78" s="215"/>
+      <c r="C78" s="215"/>
+      <c r="D78" s="216"/>
       <c r="E78" s="51"/>
     </row>
     <row r="79" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -29774,68 +29780,68 @@
       <c r="E79" s="125"/>
     </row>
     <row r="80" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="360" t="s">
+      <c r="A80" s="379" t="s">
         <v>490</v>
       </c>
-      <c r="B80" s="385"/>
-      <c r="C80" s="385"/>
-      <c r="D80" s="361"/>
+      <c r="B80" s="409"/>
+      <c r="C80" s="409"/>
+      <c r="D80" s="380"/>
       <c r="E80" s="169" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="329"/>
-      <c r="B81" s="330"/>
-      <c r="C81" s="330"/>
-      <c r="D81" s="331"/>
+      <c r="A81" s="214"/>
+      <c r="B81" s="215"/>
+      <c r="C81" s="215"/>
+      <c r="D81" s="216"/>
       <c r="E81" s="51"/>
     </row>
     <row r="82" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="329"/>
-      <c r="B82" s="330"/>
-      <c r="C82" s="330"/>
-      <c r="D82" s="331"/>
+      <c r="A82" s="214"/>
+      <c r="B82" s="215"/>
+      <c r="C82" s="215"/>
+      <c r="D82" s="216"/>
       <c r="E82" s="51"/>
     </row>
     <row r="83" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="329"/>
-      <c r="B83" s="330"/>
-      <c r="C83" s="330"/>
-      <c r="D83" s="331"/>
+      <c r="A83" s="214"/>
+      <c r="B83" s="215"/>
+      <c r="C83" s="215"/>
+      <c r="D83" s="216"/>
       <c r="E83" s="51"/>
     </row>
     <row r="84" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="329"/>
-      <c r="B84" s="330"/>
-      <c r="C84" s="330"/>
-      <c r="D84" s="331"/>
+      <c r="A84" s="214"/>
+      <c r="B84" s="215"/>
+      <c r="C84" s="215"/>
+      <c r="D84" s="216"/>
       <c r="E84" s="51"/>
     </row>
     <row r="85" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="329"/>
-      <c r="B85" s="330"/>
-      <c r="C85" s="330"/>
-      <c r="D85" s="331"/>
+      <c r="A85" s="214"/>
+      <c r="B85" s="215"/>
+      <c r="C85" s="215"/>
+      <c r="D85" s="216"/>
       <c r="E85" s="51"/>
     </row>
     <row r="88" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="89" spans="1:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="382" t="s">
+      <c r="A89" s="410" t="s">
         <v>334</v>
       </c>
-      <c r="B89" s="383"/>
-      <c r="C89" s="383"/>
-      <c r="D89" s="383"/>
-      <c r="E89" s="384"/>
+      <c r="B89" s="411"/>
+      <c r="C89" s="411"/>
+      <c r="D89" s="411"/>
+      <c r="E89" s="412"/>
     </row>
     <row r="91" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="B91" s="329"/>
-      <c r="C91" s="330"/>
-      <c r="D91" s="331"/>
+      <c r="B91" s="214"/>
+      <c r="C91" s="215"/>
+      <c r="D91" s="216"/>
     </row>
     <row r="92" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
@@ -29844,9 +29850,9 @@
       <c r="A93" s="74" t="s">
         <v>586</v>
       </c>
-      <c r="B93" s="329"/>
-      <c r="C93" s="330"/>
-      <c r="D93" s="331"/>
+      <c r="B93" s="214"/>
+      <c r="C93" s="215"/>
+      <c r="D93" s="216"/>
     </row>
     <row r="94" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
@@ -29855,9 +29861,9 @@
       <c r="A95" s="74" t="s">
         <v>587</v>
       </c>
-      <c r="B95" s="329"/>
-      <c r="C95" s="330"/>
-      <c r="D95" s="331"/>
+      <c r="B95" s="214"/>
+      <c r="C95" s="215"/>
+      <c r="D95" s="216"/>
     </row>
     <row r="96" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
@@ -29866,9 +29872,9 @@
       <c r="A97" s="74" t="s">
         <v>588</v>
       </c>
-      <c r="B97" s="329"/>
-      <c r="C97" s="330"/>
-      <c r="D97" s="331"/>
+      <c r="B97" s="214"/>
+      <c r="C97" s="215"/>
+      <c r="D97" s="216"/>
     </row>
     <row r="98" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
@@ -29877,9 +29883,9 @@
       <c r="A99" s="74" t="s">
         <v>589</v>
       </c>
-      <c r="B99" s="329"/>
-      <c r="C99" s="330"/>
-      <c r="D99" s="331"/>
+      <c r="B99" s="214"/>
+      <c r="C99" s="215"/>
+      <c r="D99" s="216"/>
     </row>
     <row r="100" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
@@ -29888,9 +29894,9 @@
       <c r="A101" s="74" t="s">
         <v>590</v>
       </c>
-      <c r="B101" s="329"/>
-      <c r="C101" s="330"/>
-      <c r="D101" s="331"/>
+      <c r="B101" s="214"/>
+      <c r="C101" s="215"/>
+      <c r="D101" s="216"/>
     </row>
     <row r="102" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
@@ -29899,9 +29905,9 @@
       <c r="A103" s="74" t="s">
         <v>591</v>
       </c>
-      <c r="B103" s="329"/>
-      <c r="C103" s="330"/>
-      <c r="D103" s="331"/>
+      <c r="B103" s="214"/>
+      <c r="C103" s="215"/>
+      <c r="D103" s="216"/>
     </row>
     <row r="104" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
@@ -29910,9 +29916,9 @@
       <c r="A105" s="74" t="s">
         <v>592</v>
       </c>
-      <c r="B105" s="329"/>
-      <c r="C105" s="330"/>
-      <c r="D105" s="331"/>
+      <c r="B105" s="214"/>
+      <c r="C105" s="215"/>
+      <c r="D105" s="216"/>
     </row>
     <row r="106" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
@@ -29921,9 +29927,9 @@
       <c r="A107" s="74" t="s">
         <v>593</v>
       </c>
-      <c r="B107" s="329"/>
-      <c r="C107" s="330"/>
-      <c r="D107" s="331"/>
+      <c r="B107" s="214"/>
+      <c r="C107" s="215"/>
+      <c r="D107" s="216"/>
     </row>
     <row r="108" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
@@ -29932,9 +29938,9 @@
       <c r="A109" s="74" t="s">
         <v>594</v>
       </c>
-      <c r="B109" s="329"/>
-      <c r="C109" s="330"/>
-      <c r="D109" s="331"/>
+      <c r="B109" s="214"/>
+      <c r="C109" s="215"/>
+      <c r="D109" s="216"/>
     </row>
     <row r="110" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -29943,9 +29949,9 @@
       <c r="A111" s="74" t="s">
         <v>595</v>
       </c>
-      <c r="B111" s="329"/>
-      <c r="C111" s="330"/>
-      <c r="D111" s="331"/>
+      <c r="B111" s="214"/>
+      <c r="C111" s="215"/>
+      <c r="D111" s="216"/>
     </row>
     <row r="112" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
@@ -29954,9 +29960,9 @@
       <c r="A113" s="74" t="s">
         <v>596</v>
       </c>
-      <c r="B113" s="329"/>
-      <c r="C113" s="330"/>
-      <c r="D113" s="331"/>
+      <c r="B113" s="214"/>
+      <c r="C113" s="215"/>
+      <c r="D113" s="216"/>
     </row>
     <row r="114" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -29965,9 +29971,9 @@
       <c r="A115" s="74" t="s">
         <v>597</v>
       </c>
-      <c r="B115" s="329"/>
-      <c r="C115" s="330"/>
-      <c r="D115" s="331"/>
+      <c r="B115" s="214"/>
+      <c r="C115" s="215"/>
+      <c r="D115" s="216"/>
     </row>
     <row r="116" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
@@ -29976,9 +29982,9 @@
       <c r="A117" s="74" t="s">
         <v>598</v>
       </c>
-      <c r="B117" s="329"/>
-      <c r="C117" s="330"/>
-      <c r="D117" s="331"/>
+      <c r="B117" s="214"/>
+      <c r="C117" s="215"/>
+      <c r="D117" s="216"/>
     </row>
     <row r="118" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
@@ -29987,30 +29993,33 @@
       <c r="A119" s="74" t="s">
         <v>599</v>
       </c>
-      <c r="B119" s="329"/>
-      <c r="C119" s="330"/>
-      <c r="D119" s="331"/>
+      <c r="B119" s="214"/>
+      <c r="C119" s="215"/>
+      <c r="D119" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A85:D85"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B99:D99"/>
     <mergeCell ref="A80:D80"/>
     <mergeCell ref="B49:E49"/>
     <mergeCell ref="A50:E50"/>
@@ -30023,27 +30032,24 @@
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A78:D78"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="A81:D81"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A85:D85"/>
-    <mergeCell ref="A89:E89"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31618,8 +31624,8 @@
   </sheetPr>
   <dimension ref="A1:L288"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A116" sqref="A116:E116"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31633,13 +31639,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="240"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="222"/>
     </row>
     <row r="2" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -31648,10 +31654,10 @@
       <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
     </row>
     <row r="4" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -31718,56 +31724,56 @@
       <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="241" t="s">
+      <c r="A11" s="223" t="s">
         <v>236</v>
       </c>
-      <c r="B11" s="242"/>
-      <c r="C11" s="243"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="225"/>
       <c r="D11" s="17" t="s">
         <v>237</v>
       </c>
       <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="214"/>
-      <c r="B12" s="215"/>
-      <c r="C12" s="215"/>
-      <c r="D12" s="215"/>
-      <c r="E12" s="216"/>
+      <c r="A12" s="311"/>
+      <c r="B12" s="312"/>
+      <c r="C12" s="312"/>
+      <c r="D12" s="312"/>
+      <c r="E12" s="313"/>
     </row>
     <row r="13" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="244" t="s">
+      <c r="A13" s="259" t="s">
         <v>238</v>
       </c>
-      <c r="B13" s="247" t="s">
+      <c r="B13" s="295" t="s">
         <v>239</v>
       </c>
-      <c r="C13" s="248"/>
-      <c r="D13" s="248"/>
-      <c r="E13" s="249"/>
+      <c r="C13" s="293"/>
+      <c r="D13" s="293"/>
+      <c r="E13" s="294"/>
     </row>
     <row r="14" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="245"/>
+      <c r="A14" s="265"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246"/>
-      <c r="B15" s="247" t="s">
+      <c r="A15" s="260"/>
+      <c r="B15" s="295" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="249"/>
+      <c r="C15" s="293"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="294"/>
     </row>
     <row r="16" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="214"/>
-      <c r="B16" s="215"/>
-      <c r="C16" s="215"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="216"/>
+      <c r="A16" s="311"/>
+      <c r="B16" s="312"/>
+      <c r="C16" s="312"/>
+      <c r="D16" s="312"/>
+      <c r="E16" s="313"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -31785,20 +31791,20 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="219"/>
+      <c r="A18" s="314"/>
+      <c r="B18" s="315"/>
+      <c r="C18" s="315"/>
+      <c r="D18" s="315"/>
+      <c r="E18" s="316"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="220"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="222"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="219"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -31826,27 +31832,27 @@
       <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="223" t="s">
+      <c r="A23" s="317" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
+      <c r="B23" s="320"/>
+      <c r="C23" s="321"/>
+      <c r="D23" s="321"/>
+      <c r="E23" s="322"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="224"/>
-      <c r="B24" s="229"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="231"/>
+      <c r="A24" s="318"/>
+      <c r="B24" s="323"/>
+      <c r="C24" s="324"/>
+      <c r="D24" s="324"/>
+      <c r="E24" s="325"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="225"/>
-      <c r="B25" s="232"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="234"/>
+      <c r="A25" s="319"/>
+      <c r="B25" s="326"/>
+      <c r="C25" s="327"/>
+      <c r="D25" s="327"/>
+      <c r="E25" s="328"/>
     </row>
     <row r="26" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -31856,37 +31862,37 @@
       <c r="E26" s="24"/>
     </row>
     <row r="27" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="235" t="s">
+      <c r="A27" s="329" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="226"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="228"/>
+      <c r="B27" s="320"/>
+      <c r="C27" s="321"/>
+      <c r="D27" s="321"/>
+      <c r="E27" s="322"/>
     </row>
     <row r="28" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="236"/>
-      <c r="B28" s="229"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="231"/>
+      <c r="A28" s="330"/>
+      <c r="B28" s="323"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="324"/>
+      <c r="E28" s="325"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="237"/>
-      <c r="B29" s="232"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="234"/>
+      <c r="A29" s="331"/>
+      <c r="B29" s="326"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="328"/>
     </row>
     <row r="30" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="259" t="s">
+      <c r="A31" s="305" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="260"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="261"/>
+      <c r="B31" s="306"/>
+      <c r="C31" s="306"/>
+      <c r="D31" s="306"/>
+      <c r="E31" s="307"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -31925,13 +31931,13 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="259" t="s">
+      <c r="A36" s="305" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="260"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="261"/>
+      <c r="B36" s="306"/>
+      <c r="C36" s="306"/>
+      <c r="D36" s="306"/>
+      <c r="E36" s="307"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -31970,13 +31976,13 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="259" t="s">
+      <c r="A41" s="305" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="260"/>
-      <c r="C41" s="260"/>
-      <c r="D41" s="260"/>
-      <c r="E41" s="261"/>
+      <c r="B41" s="306"/>
+      <c r="C41" s="306"/>
+      <c r="D41" s="306"/>
+      <c r="E41" s="307"/>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -31997,13 +32003,13 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="259" t="s">
+      <c r="A44" s="305" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="260"/>
-      <c r="C44" s="260"/>
-      <c r="D44" s="260"/>
-      <c r="E44" s="261"/>
+      <c r="B44" s="306"/>
+      <c r="C44" s="306"/>
+      <c r="D44" s="306"/>
+      <c r="E44" s="307"/>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -32024,72 +32030,72 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="253" t="s">
+      <c r="A47" s="299" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="262" t="s">
+      <c r="B47" s="308" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="263"/>
-      <c r="D47" s="263"/>
-      <c r="E47" s="264"/>
+      <c r="C47" s="309"/>
+      <c r="D47" s="309"/>
+      <c r="E47" s="310"/>
     </row>
     <row r="48" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="254"/>
+      <c r="A48" s="300"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="255"/>
-      <c r="B49" s="262" t="s">
+      <c r="A49" s="301"/>
+      <c r="B49" s="308" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="263"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="264"/>
+      <c r="C49" s="309"/>
+      <c r="D49" s="309"/>
+      <c r="E49" s="310"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="250" t="s">
+      <c r="A50" s="239" t="s">
         <v>261</v>
       </c>
-      <c r="B50" s="251"/>
-      <c r="C50" s="251"/>
-      <c r="D50" s="251"/>
-      <c r="E50" s="252"/>
+      <c r="B50" s="240"/>
+      <c r="C50" s="240"/>
+      <c r="D50" s="240"/>
+      <c r="E50" s="241"/>
     </row>
     <row r="51" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="253" t="s">
+      <c r="A52" s="299" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="247" t="s">
+      <c r="B52" s="295" t="s">
         <v>263</v>
       </c>
-      <c r="C52" s="248"/>
-      <c r="D52" s="248"/>
-      <c r="E52" s="249"/>
+      <c r="C52" s="293"/>
+      <c r="D52" s="293"/>
+      <c r="E52" s="294"/>
     </row>
     <row r="53" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="254"/>
+      <c r="A53" s="300"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="254"/>
-      <c r="B54" s="247" t="s">
+      <c r="A54" s="300"/>
+      <c r="B54" s="295" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="248"/>
-      <c r="D54" s="248"/>
-      <c r="E54" s="249"/>
+      <c r="C54" s="293"/>
+      <c r="D54" s="293"/>
+      <c r="E54" s="294"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="254"/>
+      <c r="A55" s="300"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -32097,52 +32103,52 @@
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="255"/>
+      <c r="A56" s="301"/>
       <c r="B56" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="247"/>
-      <c r="D56" s="248"/>
-      <c r="E56" s="249"/>
+      <c r="C56" s="295"/>
+      <c r="D56" s="293"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="256"/>
-      <c r="B57" s="257"/>
-      <c r="C57" s="257"/>
-      <c r="D57" s="257"/>
-      <c r="E57" s="258"/>
+      <c r="A57" s="302"/>
+      <c r="B57" s="303"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="304"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="279" t="s">
+      <c r="A58" s="290" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="293" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="248"/>
-      <c r="D58" s="248"/>
-      <c r="E58" s="249"/>
+      <c r="C58" s="293"/>
+      <c r="D58" s="293"/>
+      <c r="E58" s="294"/>
     </row>
     <row r="59" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="280"/>
+      <c r="A59" s="291"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="280"/>
-      <c r="B60" s="248" t="s">
+      <c r="A60" s="291"/>
+      <c r="B60" s="293" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="248"/>
-      <c r="D60" s="248"/>
-      <c r="E60" s="249"/>
+      <c r="C60" s="293"/>
+      <c r="D60" s="293"/>
+      <c r="E60" s="294"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="280"/>
+      <c r="A61" s="291"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -32150,21 +32156,21 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="281"/>
+      <c r="A62" s="292"/>
       <c r="B62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="247"/>
-      <c r="D62" s="248"/>
-      <c r="E62" s="249"/>
+      <c r="C62" s="295"/>
+      <c r="D62" s="293"/>
+      <c r="E62" s="294"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="282"/>
-      <c r="B63" s="283"/>
-      <c r="C63" s="283"/>
-      <c r="D63" s="283"/>
-      <c r="E63" s="284"/>
+      <c r="A63" s="296"/>
+      <c r="B63" s="297"/>
+      <c r="C63" s="297"/>
+      <c r="D63" s="297"/>
+      <c r="E63" s="298"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
@@ -32180,46 +32186,46 @@
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="265"/>
-      <c r="B65" s="266"/>
-      <c r="C65" s="266"/>
-      <c r="D65" s="266"/>
-      <c r="E65" s="267"/>
+      <c r="A65" s="285"/>
+      <c r="B65" s="286"/>
+      <c r="C65" s="286"/>
+      <c r="D65" s="286"/>
+      <c r="E65" s="287"/>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="244" t="s">
+      <c r="A66" s="259" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="220" t="s">
+      <c r="B66" s="217" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="221"/>
-      <c r="D66" s="221"/>
-      <c r="E66" s="222"/>
+      <c r="C66" s="218"/>
+      <c r="D66" s="218"/>
+      <c r="E66" s="219"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="245"/>
+      <c r="A67" s="265"/>
       <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="246"/>
-      <c r="B68" s="220" t="s">
+      <c r="A68" s="260"/>
+      <c r="B68" s="217" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="221"/>
-      <c r="D68" s="221"/>
-      <c r="E68" s="222"/>
+      <c r="C68" s="218"/>
+      <c r="D68" s="218"/>
+      <c r="E68" s="219"/>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="265"/>
-      <c r="B69" s="266"/>
-      <c r="C69" s="266"/>
-      <c r="D69" s="266"/>
-      <c r="E69" s="267"/>
+      <c r="A69" s="285"/>
+      <c r="B69" s="286"/>
+      <c r="C69" s="286"/>
+      <c r="D69" s="286"/>
+      <c r="E69" s="287"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
@@ -32359,13 +32365,13 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="268" t="s">
+      <c r="A82" s="230" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="269"/>
-      <c r="C82" s="269"/>
-      <c r="D82" s="269"/>
-      <c r="E82" s="270"/>
+      <c r="B82" s="231"/>
+      <c r="C82" s="231"/>
+      <c r="D82" s="231"/>
+      <c r="E82" s="232"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="55"/>
@@ -32375,13 +32381,13 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="271" t="s">
+      <c r="A83" s="288" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="273"/>
-      <c r="C83" s="274"/>
-      <c r="D83" s="274"/>
-      <c r="E83" s="275"/>
+      <c r="B83" s="276"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
+      <c r="E83" s="278"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="57"/>
@@ -32391,11 +32397,11 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="272"/>
-      <c r="B84" s="276"/>
-      <c r="C84" s="277"/>
-      <c r="D84" s="277"/>
-      <c r="E84" s="278"/>
+      <c r="A84" s="289"/>
+      <c r="B84" s="279"/>
+      <c r="C84" s="280"/>
+      <c r="D84" s="280"/>
+      <c r="E84" s="281"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="55"/>
@@ -32416,15 +32422,15 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="293" t="s">
+      <c r="A86" s="268" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="294"/>
-      <c r="C86" s="295"/>
-      <c r="D86" s="296" t="s">
+      <c r="B86" s="269"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="271" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="297"/>
+      <c r="E86" s="272"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="55"/>
@@ -32451,10 +32457,10 @@
       <c r="A88" s="65" t="s">
         <v>289</v>
       </c>
-      <c r="B88" s="298"/>
-      <c r="C88" s="299"/>
-      <c r="D88" s="299"/>
-      <c r="E88" s="300"/>
+      <c r="B88" s="273"/>
+      <c r="C88" s="274"/>
+      <c r="D88" s="274"/>
+      <c r="E88" s="275"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="66"/>
@@ -32475,13 +32481,13 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="244" t="s">
+      <c r="A90" s="259" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="273"/>
-      <c r="C90" s="274"/>
-      <c r="D90" s="274"/>
-      <c r="E90" s="275"/>
+      <c r="B90" s="276"/>
+      <c r="C90" s="277"/>
+      <c r="D90" s="277"/>
+      <c r="E90" s="278"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="55"/>
@@ -32491,11 +32497,11 @@
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="246"/>
-      <c r="B91" s="276"/>
-      <c r="C91" s="277"/>
-      <c r="D91" s="277"/>
-      <c r="E91" s="278"/>
+      <c r="A91" s="260"/>
+      <c r="B91" s="279"/>
+      <c r="C91" s="280"/>
+      <c r="D91" s="280"/>
+      <c r="E91" s="281"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="55"/>
@@ -32515,13 +32521,13 @@
       <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="244" t="s">
+      <c r="A93" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="273"/>
-      <c r="C93" s="274"/>
-      <c r="D93" s="274"/>
-      <c r="E93" s="275"/>
+      <c r="B93" s="276"/>
+      <c r="C93" s="277"/>
+      <c r="D93" s="277"/>
+      <c r="E93" s="278"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="66"/>
@@ -32531,11 +32537,11 @@
       <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="245"/>
-      <c r="B94" s="301"/>
-      <c r="C94" s="302"/>
-      <c r="D94" s="302"/>
-      <c r="E94" s="303"/>
+      <c r="A94" s="265"/>
+      <c r="B94" s="282"/>
+      <c r="C94" s="283"/>
+      <c r="D94" s="283"/>
+      <c r="E94" s="284"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="70"/>
@@ -32545,11 +32551,11 @@
       <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="246"/>
-      <c r="B95" s="276"/>
-      <c r="C95" s="277"/>
-      <c r="D95" s="277"/>
-      <c r="E95" s="278"/>
+      <c r="A95" s="260"/>
+      <c r="B95" s="279"/>
+      <c r="C95" s="280"/>
+      <c r="D95" s="280"/>
+      <c r="E95" s="281"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -32570,13 +32576,13 @@
       <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="268" t="s">
+      <c r="A97" s="230" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="269"/>
-      <c r="C97" s="269"/>
-      <c r="D97" s="269"/>
-      <c r="E97" s="270"/>
+      <c r="B97" s="231"/>
+      <c r="C97" s="231"/>
+      <c r="D97" s="231"/>
+      <c r="E97" s="232"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="57"/>
@@ -32586,10 +32592,10 @@
       <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="285" t="s">
+      <c r="A98" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="286"/>
+      <c r="B98" s="264"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
         <v>294</v>
@@ -32621,10 +32627,10 @@
       <c r="A100" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="220"/>
-      <c r="C100" s="221"/>
-      <c r="D100" s="221"/>
-      <c r="E100" s="222"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="218"/>
+      <c r="D100" s="218"/>
+      <c r="E100" s="219"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="55"/>
@@ -32651,10 +32657,10 @@
       <c r="A102" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="220"/>
-      <c r="C102" s="221"/>
-      <c r="D102" s="221"/>
-      <c r="E102" s="222"/>
+      <c r="B102" s="217"/>
+      <c r="C102" s="218"/>
+      <c r="D102" s="218"/>
+      <c r="E102" s="219"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="55"/>
@@ -32706,13 +32712,13 @@
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="244" t="s">
+      <c r="A106" s="259" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="287"/>
-      <c r="C106" s="288"/>
-      <c r="D106" s="288"/>
-      <c r="E106" s="288"/>
+      <c r="B106" s="253"/>
+      <c r="C106" s="254"/>
+      <c r="D106" s="254"/>
+      <c r="E106" s="254"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="55"/>
@@ -32722,11 +32728,11 @@
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="245"/>
-      <c r="B107" s="289"/>
-      <c r="C107" s="290"/>
-      <c r="D107" s="290"/>
-      <c r="E107" s="290"/>
+      <c r="A107" s="265"/>
+      <c r="B107" s="266"/>
+      <c r="C107" s="267"/>
+      <c r="D107" s="267"/>
+      <c r="E107" s="267"/>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
       <c r="H107" s="55"/>
@@ -32736,11 +32742,11 @@
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="246"/>
-      <c r="B108" s="291"/>
-      <c r="C108" s="292"/>
-      <c r="D108" s="292"/>
-      <c r="E108" s="292"/>
+      <c r="A108" s="260"/>
+      <c r="B108" s="256"/>
+      <c r="C108" s="257"/>
+      <c r="D108" s="257"/>
+      <c r="E108" s="257"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="55"/>
@@ -32764,13 +32770,13 @@
       <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="316" t="s">
+      <c r="A110" s="251" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="287"/>
-      <c r="C110" s="288"/>
-      <c r="D110" s="288"/>
-      <c r="E110" s="318"/>
+      <c r="B110" s="253"/>
+      <c r="C110" s="254"/>
+      <c r="D110" s="254"/>
+      <c r="E110" s="255"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="55"/>
@@ -32780,11 +32786,11 @@
       <c r="L110" s="18"/>
     </row>
     <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="317"/>
-      <c r="B111" s="291"/>
-      <c r="C111" s="292"/>
-      <c r="D111" s="292"/>
-      <c r="E111" s="319"/>
+      <c r="A111" s="252"/>
+      <c r="B111" s="256"/>
+      <c r="C111" s="257"/>
+      <c r="D111" s="257"/>
+      <c r="E111" s="258"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="55"/>
@@ -32799,38 +32805,38 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="244" t="s">
+      <c r="A113" s="259" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="287"/>
-      <c r="C113" s="288"/>
-      <c r="D113" s="288"/>
-      <c r="E113" s="318"/>
+      <c r="B113" s="253"/>
+      <c r="C113" s="254"/>
+      <c r="D113" s="254"/>
+      <c r="E113" s="255"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="246"/>
-      <c r="B114" s="291"/>
-      <c r="C114" s="292"/>
-      <c r="D114" s="292"/>
-      <c r="E114" s="319"/>
+      <c r="A114" s="260"/>
+      <c r="B114" s="256"/>
+      <c r="C114" s="257"/>
+      <c r="D114" s="257"/>
+      <c r="E114" s="258"/>
     </row>
     <row r="115" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="320" t="s">
+      <c r="A116" s="261" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="320"/>
-      <c r="C116" s="320"/>
-      <c r="D116" s="320"/>
-      <c r="E116" s="320"/>
+      <c r="B116" s="261"/>
+      <c r="C116" s="261"/>
+      <c r="D116" s="261"/>
+      <c r="E116" s="261"/>
       <c r="H116" s="78"/>
     </row>
     <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="285" t="s">
+      <c r="A117" s="262" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="321"/>
-      <c r="C117" s="286"/>
+      <c r="B117" s="263"/>
+      <c r="C117" s="264"/>
       <c r="D117" s="13" t="s">
         <v>304</v>
       </c>
@@ -32838,11 +32844,11 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="304"/>
-      <c r="B118" s="305"/>
-      <c r="C118" s="305"/>
-      <c r="D118" s="305"/>
-      <c r="E118" s="306"/>
+      <c r="A118" s="242"/>
+      <c r="B118" s="243"/>
+      <c r="C118" s="243"/>
+      <c r="D118" s="243"/>
+      <c r="E118" s="244"/>
     </row>
     <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
@@ -32869,10 +32875,10 @@
       <c r="A121" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="220"/>
-      <c r="C121" s="221"/>
-      <c r="D121" s="221"/>
-      <c r="E121" s="222"/>
+      <c r="B121" s="217"/>
+      <c r="C121" s="218"/>
+      <c r="D121" s="218"/>
+      <c r="E121" s="219"/>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32918,11 +32924,11 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="307"/>
-      <c r="B126" s="308"/>
-      <c r="C126" s="308"/>
-      <c r="D126" s="308"/>
-      <c r="E126" s="309"/>
+      <c r="A126" s="245"/>
+      <c r="B126" s="246"/>
+      <c r="C126" s="246"/>
+      <c r="D126" s="246"/>
+      <c r="E126" s="247"/>
     </row>
     <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
@@ -32949,10 +32955,10 @@
       <c r="A129" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="220"/>
-      <c r="C129" s="221"/>
-      <c r="D129" s="221"/>
-      <c r="E129" s="222"/>
+      <c r="B129" s="217"/>
+      <c r="C129" s="218"/>
+      <c r="D129" s="218"/>
+      <c r="E129" s="219"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -32998,11 +33004,11 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="310"/>
-      <c r="B134" s="311"/>
-      <c r="C134" s="311"/>
-      <c r="D134" s="311"/>
-      <c r="E134" s="312"/>
+      <c r="A134" s="236"/>
+      <c r="B134" s="237"/>
+      <c r="C134" s="237"/>
+      <c r="D134" s="237"/>
+      <c r="E134" s="238"/>
     </row>
     <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
@@ -33028,10 +33034,10 @@
       <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="313"/>
-      <c r="C137" s="314"/>
-      <c r="D137" s="314"/>
-      <c r="E137" s="315"/>
+      <c r="B137" s="248"/>
+      <c r="C137" s="249"/>
+      <c r="D137" s="249"/>
+      <c r="E137" s="250"/>
     </row>
     <row r="138" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
@@ -33074,11 +33080,11 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="310"/>
-      <c r="B142" s="311"/>
-      <c r="C142" s="311"/>
-      <c r="D142" s="311"/>
-      <c r="E142" s="312"/>
+      <c r="A142" s="236"/>
+      <c r="B142" s="237"/>
+      <c r="C142" s="237"/>
+      <c r="D142" s="237"/>
+      <c r="E142" s="238"/>
     </row>
     <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
@@ -33104,10 +33110,10 @@
       <c r="A145" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="220"/>
-      <c r="C145" s="221"/>
-      <c r="D145" s="221"/>
-      <c r="E145" s="222"/>
+      <c r="B145" s="217"/>
+      <c r="C145" s="218"/>
+      <c r="D145" s="218"/>
+      <c r="E145" s="219"/>
     </row>
     <row r="146" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
@@ -33413,13 +33419,13 @@
       <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="250" t="s">
+      <c r="A183" s="239" t="s">
         <v>314</v>
       </c>
-      <c r="B183" s="251"/>
-      <c r="C183" s="251"/>
-      <c r="D183" s="251"/>
-      <c r="E183" s="252"/>
+      <c r="B183" s="240"/>
+      <c r="C183" s="240"/>
+      <c r="D183" s="240"/>
+      <c r="E183" s="241"/>
     </row>
     <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
@@ -33433,20 +33439,20 @@
       <c r="A185" s="83"/>
     </row>
     <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="268" t="s">
+      <c r="A186" s="230" t="s">
         <v>317</v>
       </c>
-      <c r="B186" s="269"/>
-      <c r="C186" s="269"/>
-      <c r="D186" s="270"/>
+      <c r="B186" s="231"/>
+      <c r="C186" s="231"/>
+      <c r="D186" s="232"/>
     </row>
     <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="325" t="s">
+      <c r="A187" s="226" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="326"/>
-      <c r="C187" s="326"/>
-      <c r="D187" s="327"/>
+      <c r="B187" s="227"/>
+      <c r="C187" s="227"/>
+      <c r="D187" s="228"/>
     </row>
     <row r="188" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
@@ -33455,12 +33461,12 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="325" t="s">
+      <c r="A189" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="326"/>
-      <c r="C189" s="326"/>
-      <c r="D189" s="327"/>
+      <c r="B189" s="227"/>
+      <c r="C189" s="227"/>
+      <c r="D189" s="228"/>
     </row>
     <row r="190" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
@@ -33472,9 +33478,9 @@
       <c r="A191" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="220"/>
-      <c r="C191" s="221"/>
-      <c r="D191" s="222"/>
+      <c r="B191" s="217"/>
+      <c r="C191" s="218"/>
+      <c r="D191" s="219"/>
     </row>
     <row r="192" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
@@ -33483,20 +33489,20 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="322" t="s">
+      <c r="A193" s="233" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="323"/>
-      <c r="C193" s="323"/>
-      <c r="D193" s="324"/>
+      <c r="B193" s="234"/>
+      <c r="C193" s="234"/>
+      <c r="D193" s="235"/>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="325" t="s">
+      <c r="A194" s="226" t="s">
         <v>321</v>
       </c>
-      <c r="B194" s="326"/>
-      <c r="C194" s="326"/>
-      <c r="D194" s="327"/>
+      <c r="B194" s="227"/>
+      <c r="C194" s="227"/>
+      <c r="D194" s="228"/>
     </row>
     <row r="195" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
@@ -33508,9 +33514,9 @@
       <c r="A196" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B196" s="220"/>
-      <c r="C196" s="221"/>
-      <c r="D196" s="222"/>
+      <c r="B196" s="217"/>
+      <c r="C196" s="218"/>
+      <c r="D196" s="219"/>
     </row>
     <row r="197" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
@@ -33519,20 +33525,20 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="268" t="s">
+      <c r="A198" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="269"/>
-      <c r="C198" s="269"/>
-      <c r="D198" s="270"/>
+      <c r="B198" s="231"/>
+      <c r="C198" s="231"/>
+      <c r="D198" s="232"/>
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="325" t="s">
+      <c r="A199" s="226" t="s">
         <v>323</v>
       </c>
-      <c r="B199" s="326"/>
-      <c r="C199" s="326"/>
-      <c r="D199" s="327"/>
+      <c r="B199" s="227"/>
+      <c r="C199" s="227"/>
+      <c r="D199" s="228"/>
     </row>
     <row r="200" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="86"/>
@@ -33544,9 +33550,9 @@
       <c r="A201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="220"/>
-      <c r="C201" s="221"/>
-      <c r="D201" s="222"/>
+      <c r="B201" s="217"/>
+      <c r="C201" s="218"/>
+      <c r="D201" s="219"/>
     </row>
     <row r="202" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
@@ -33555,20 +33561,20 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="268" t="s">
+      <c r="A203" s="230" t="s">
         <v>324</v>
       </c>
-      <c r="B203" s="269"/>
-      <c r="C203" s="269"/>
-      <c r="D203" s="270"/>
+      <c r="B203" s="231"/>
+      <c r="C203" s="231"/>
+      <c r="D203" s="232"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="325" t="s">
+      <c r="A204" s="226" t="s">
         <v>325</v>
       </c>
-      <c r="B204" s="326"/>
-      <c r="C204" s="326"/>
-      <c r="D204" s="327"/>
+      <c r="B204" s="227"/>
+      <c r="C204" s="227"/>
+      <c r="D204" s="228"/>
     </row>
     <row r="205" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
@@ -33577,12 +33583,12 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="325" t="s">
+      <c r="A206" s="226" t="s">
         <v>326</v>
       </c>
-      <c r="B206" s="326"/>
-      <c r="C206" s="326"/>
-      <c r="D206" s="327"/>
+      <c r="B206" s="227"/>
+      <c r="C206" s="227"/>
+      <c r="D206" s="228"/>
     </row>
     <row r="207" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
@@ -33594,9 +33600,9 @@
       <c r="A208" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="220"/>
-      <c r="C208" s="221"/>
-      <c r="D208" s="222"/>
+      <c r="B208" s="217"/>
+      <c r="C208" s="218"/>
+      <c r="D208" s="219"/>
     </row>
     <row r="209" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
@@ -33605,20 +33611,20 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="268" t="s">
+      <c r="A210" s="230" t="s">
         <v>327</v>
       </c>
-      <c r="B210" s="269"/>
-      <c r="C210" s="269"/>
-      <c r="D210" s="270"/>
+      <c r="B210" s="231"/>
+      <c r="C210" s="231"/>
+      <c r="D210" s="232"/>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="325" t="s">
+      <c r="A211" s="226" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="326"/>
-      <c r="C211" s="326"/>
-      <c r="D211" s="327"/>
+      <c r="B211" s="227"/>
+      <c r="C211" s="227"/>
+      <c r="D211" s="228"/>
     </row>
     <row r="212" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
@@ -33630,9 +33636,9 @@
       <c r="A213" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="220"/>
-      <c r="C213" s="221"/>
-      <c r="D213" s="222"/>
+      <c r="B213" s="217"/>
+      <c r="C213" s="218"/>
+      <c r="D213" s="219"/>
     </row>
     <row r="214" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
@@ -33641,20 +33647,20 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="268" t="s">
+      <c r="A215" s="230" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="269"/>
-      <c r="C215" s="269"/>
-      <c r="D215" s="270"/>
+      <c r="B215" s="231"/>
+      <c r="C215" s="231"/>
+      <c r="D215" s="232"/>
     </row>
     <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="325" t="s">
+      <c r="A216" s="226" t="s">
         <v>330</v>
       </c>
-      <c r="B216" s="326"/>
-      <c r="C216" s="326"/>
-      <c r="D216" s="327"/>
+      <c r="B216" s="227"/>
+      <c r="C216" s="227"/>
+      <c r="D216" s="228"/>
     </row>
     <row r="217" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
@@ -33666,9 +33672,9 @@
       <c r="A218" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="220"/>
-      <c r="C218" s="221"/>
-      <c r="D218" s="222"/>
+      <c r="B218" s="217"/>
+      <c r="C218" s="218"/>
+      <c r="D218" s="219"/>
     </row>
     <row r="219" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
@@ -33677,20 +33683,20 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="268" t="s">
+      <c r="A220" s="230" t="s">
         <v>331</v>
       </c>
-      <c r="B220" s="269"/>
-      <c r="C220" s="269"/>
-      <c r="D220" s="270"/>
+      <c r="B220" s="231"/>
+      <c r="C220" s="231"/>
+      <c r="D220" s="232"/>
     </row>
     <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="325" t="s">
+      <c r="A221" s="226" t="s">
         <v>332</v>
       </c>
-      <c r="B221" s="326"/>
-      <c r="C221" s="326"/>
-      <c r="D221" s="327"/>
+      <c r="B221" s="227"/>
+      <c r="C221" s="227"/>
+      <c r="D221" s="228"/>
     </row>
     <row r="222" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
@@ -33699,12 +33705,12 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="325" t="s">
+      <c r="A223" s="226" t="s">
         <v>333</v>
       </c>
-      <c r="B223" s="326"/>
-      <c r="C223" s="326"/>
-      <c r="D223" s="327"/>
+      <c r="B223" s="227"/>
+      <c r="C223" s="227"/>
+      <c r="D223" s="228"/>
     </row>
     <row r="224" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
@@ -33716,9 +33722,9 @@
       <c r="A225" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B225" s="220"/>
-      <c r="C225" s="221"/>
-      <c r="D225" s="222"/>
+      <c r="B225" s="217"/>
+      <c r="C225" s="218"/>
+      <c r="D225" s="219"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
@@ -33727,13 +33733,13 @@
       <c r="D226" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="328" t="s">
+      <c r="A230" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="B230" s="328"/>
-      <c r="C230" s="328"/>
-      <c r="D230" s="328"/>
-      <c r="E230" s="328"/>
+      <c r="B230" s="229"/>
+      <c r="C230" s="229"/>
+      <c r="D230" s="229"/>
+      <c r="E230" s="229"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="87"/>
@@ -33745,9 +33751,9 @@
       <c r="A232" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="220"/>
-      <c r="C232" s="221"/>
-      <c r="D232" s="222"/>
+      <c r="B232" s="217"/>
+      <c r="C232" s="218"/>
+      <c r="D232" s="219"/>
     </row>
     <row r="233" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
@@ -33759,9 +33765,9 @@
       <c r="A234" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="220"/>
-      <c r="C234" s="221"/>
-      <c r="D234" s="222"/>
+      <c r="B234" s="217"/>
+      <c r="C234" s="218"/>
+      <c r="D234" s="219"/>
     </row>
     <row r="235" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
@@ -33773,9 +33779,9 @@
       <c r="A236" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B236" s="220"/>
-      <c r="C236" s="221"/>
-      <c r="D236" s="222"/>
+      <c r="B236" s="217"/>
+      <c r="C236" s="218"/>
+      <c r="D236" s="219"/>
     </row>
     <row r="237" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
@@ -33787,9 +33793,9 @@
       <c r="A238" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="220"/>
-      <c r="C238" s="221"/>
-      <c r="D238" s="222"/>
+      <c r="B238" s="217"/>
+      <c r="C238" s="218"/>
+      <c r="D238" s="219"/>
     </row>
     <row r="239" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
@@ -33801,9 +33807,9 @@
       <c r="A240" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B240" s="220"/>
-      <c r="C240" s="221"/>
-      <c r="D240" s="222"/>
+      <c r="B240" s="217"/>
+      <c r="C240" s="218"/>
+      <c r="D240" s="219"/>
     </row>
     <row r="241" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
@@ -33815,9 +33821,9 @@
       <c r="A242" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="220"/>
-      <c r="C242" s="221"/>
-      <c r="D242" s="222"/>
+      <c r="B242" s="217"/>
+      <c r="C242" s="218"/>
+      <c r="D242" s="219"/>
     </row>
     <row r="243" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
@@ -33829,9 +33835,9 @@
       <c r="A244" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B244" s="220"/>
-      <c r="C244" s="221"/>
-      <c r="D244" s="222"/>
+      <c r="B244" s="217"/>
+      <c r="C244" s="218"/>
+      <c r="D244" s="219"/>
     </row>
     <row r="245" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
@@ -33843,9 +33849,9 @@
       <c r="A246" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B246" s="220"/>
-      <c r="C246" s="221"/>
-      <c r="D246" s="222"/>
+      <c r="B246" s="217"/>
+      <c r="C246" s="218"/>
+      <c r="D246" s="219"/>
     </row>
     <row r="247" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -33857,9 +33863,9 @@
       <c r="A248" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="220"/>
-      <c r="C248" s="221"/>
-      <c r="D248" s="222"/>
+      <c r="B248" s="217"/>
+      <c r="C248" s="218"/>
+      <c r="D248" s="219"/>
     </row>
     <row r="249" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -33871,9 +33877,9 @@
       <c r="A250" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B250" s="220"/>
-      <c r="C250" s="221"/>
-      <c r="D250" s="222"/>
+      <c r="B250" s="217"/>
+      <c r="C250" s="218"/>
+      <c r="D250" s="219"/>
     </row>
     <row r="251" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
@@ -33885,9 +33891,9 @@
       <c r="A252" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="220"/>
-      <c r="C252" s="221"/>
-      <c r="D252" s="222"/>
+      <c r="B252" s="217"/>
+      <c r="C252" s="218"/>
+      <c r="D252" s="219"/>
     </row>
     <row r="253" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
@@ -33899,9 +33905,9 @@
       <c r="A254" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B254" s="220"/>
-      <c r="C254" s="221"/>
-      <c r="D254" s="222"/>
+      <c r="B254" s="217"/>
+      <c r="C254" s="218"/>
+      <c r="D254" s="219"/>
     </row>
     <row r="255" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
@@ -33913,9 +33919,9 @@
       <c r="A256" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B256" s="220"/>
-      <c r="C256" s="221"/>
-      <c r="D256" s="222"/>
+      <c r="B256" s="217"/>
+      <c r="C256" s="218"/>
+      <c r="D256" s="219"/>
     </row>
     <row r="257" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
@@ -33927,9 +33933,9 @@
       <c r="A258" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B258" s="220"/>
-      <c r="C258" s="221"/>
-      <c r="D258" s="222"/>
+      <c r="B258" s="217"/>
+      <c r="C258" s="218"/>
+      <c r="D258" s="219"/>
     </row>
     <row r="259" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
@@ -33941,9 +33947,9 @@
       <c r="A260" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B260" s="220"/>
-      <c r="C260" s="221"/>
-      <c r="D260" s="222"/>
+      <c r="B260" s="217"/>
+      <c r="C260" s="218"/>
+      <c r="D260" s="219"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
@@ -34000,13 +34006,13 @@
       <c r="D269" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="238" t="s">
+      <c r="A274" s="220" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="239"/>
-      <c r="C274" s="239"/>
-      <c r="D274" s="239"/>
-      <c r="E274" s="240"/>
+      <c r="B274" s="221"/>
+      <c r="C274" s="221"/>
+      <c r="D274" s="221"/>
+      <c r="E274" s="222"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="88"/>
@@ -34015,210 +34021,102 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="241" t="s">
+      <c r="A276" s="223" t="s">
         <v>350</v>
       </c>
-      <c r="B276" s="242"/>
-      <c r="C276" s="242"/>
-      <c r="D276" s="243"/>
+      <c r="B276" s="224"/>
+      <c r="C276" s="224"/>
+      <c r="D276" s="225"/>
       <c r="E276" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="220"/>
-      <c r="B277" s="221"/>
-      <c r="C277" s="221"/>
-      <c r="D277" s="222"/>
+      <c r="A277" s="217"/>
+      <c r="B277" s="218"/>
+      <c r="C277" s="218"/>
+      <c r="D277" s="219"/>
       <c r="E277" s="51"/>
     </row>
     <row r="278" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="329"/>
-      <c r="B278" s="330"/>
-      <c r="C278" s="330"/>
-      <c r="D278" s="331"/>
+      <c r="A278" s="214"/>
+      <c r="B278" s="215"/>
+      <c r="C278" s="215"/>
+      <c r="D278" s="216"/>
       <c r="E278" s="51"/>
     </row>
     <row r="279" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="329"/>
-      <c r="B279" s="330"/>
-      <c r="C279" s="330"/>
-      <c r="D279" s="331"/>
+      <c r="A279" s="214"/>
+      <c r="B279" s="215"/>
+      <c r="C279" s="215"/>
+      <c r="D279" s="216"/>
       <c r="E279" s="51"/>
     </row>
     <row r="280" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="329"/>
-      <c r="B280" s="330"/>
-      <c r="C280" s="330"/>
-      <c r="D280" s="331"/>
+      <c r="A280" s="214"/>
+      <c r="B280" s="215"/>
+      <c r="C280" s="215"/>
+      <c r="D280" s="216"/>
       <c r="E280" s="51"/>
     </row>
     <row r="281" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="329"/>
-      <c r="B281" s="330"/>
-      <c r="C281" s="330"/>
-      <c r="D281" s="331"/>
+      <c r="A281" s="214"/>
+      <c r="B281" s="215"/>
+      <c r="C281" s="215"/>
+      <c r="D281" s="216"/>
       <c r="E281" s="51"/>
     </row>
     <row r="282" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="329"/>
-      <c r="B282" s="330"/>
-      <c r="C282" s="330"/>
-      <c r="D282" s="331"/>
+      <c r="A282" s="214"/>
+      <c r="B282" s="215"/>
+      <c r="C282" s="215"/>
+      <c r="D282" s="216"/>
       <c r="E282" s="51"/>
     </row>
     <row r="283" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="329"/>
-      <c r="B283" s="330"/>
-      <c r="C283" s="330"/>
-      <c r="D283" s="331"/>
+      <c r="A283" s="214"/>
+      <c r="B283" s="215"/>
+      <c r="C283" s="215"/>
+      <c r="D283" s="216"/>
       <c r="E283" s="51"/>
     </row>
     <row r="284" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="329"/>
-      <c r="B284" s="330"/>
-      <c r="C284" s="330"/>
-      <c r="D284" s="331"/>
+      <c r="A284" s="214"/>
+      <c r="B284" s="215"/>
+      <c r="C284" s="215"/>
+      <c r="D284" s="216"/>
       <c r="E284" s="51"/>
     </row>
     <row r="285" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="329"/>
-      <c r="B285" s="330"/>
-      <c r="C285" s="330"/>
-      <c r="D285" s="331"/>
+      <c r="A285" s="214"/>
+      <c r="B285" s="215"/>
+      <c r="C285" s="215"/>
+      <c r="D285" s="216"/>
       <c r="E285" s="51"/>
     </row>
     <row r="286" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="329"/>
-      <c r="B286" s="330"/>
-      <c r="C286" s="330"/>
-      <c r="D286" s="331"/>
+      <c r="A286" s="214"/>
+      <c r="B286" s="215"/>
+      <c r="C286" s="215"/>
+      <c r="D286" s="216"/>
       <c r="E286" s="51"/>
     </row>
     <row r="287" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="329"/>
-      <c r="B287" s="330"/>
-      <c r="C287" s="330"/>
-      <c r="D287" s="331"/>
+      <c r="A287" s="214"/>
+      <c r="B287" s="215"/>
+      <c r="C287" s="215"/>
+      <c r="D287" s="216"/>
       <c r="E287" s="51"/>
     </row>
     <row r="288" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="329"/>
-      <c r="B288" s="330"/>
-      <c r="C288" s="330"/>
-      <c r="D288" s="331"/>
+      <c r="A288" s="214"/>
+      <c r="B288" s="215"/>
+      <c r="C288" s="215"/>
+      <c r="D288" s="216"/>
       <c r="E288" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="A97:E97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="A106:A108"/>
-    <mergeCell ref="B106:E108"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="B88:E88"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="B90:E91"/>
-    <mergeCell ref="A93:A95"/>
-    <mergeCell ref="B93:E95"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
     <mergeCell ref="A16:E16"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B19:E19"/>
@@ -34233,6 +34131,114 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="A106:A108"/>
+    <mergeCell ref="B106:E108"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="B90:E91"/>
+    <mergeCell ref="A93:A95"/>
+    <mergeCell ref="B93:E95"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A285:D285"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -38177,7 +38183,7 @@
   </sheetPr>
   <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -38192,13 +38198,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="220" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="240"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="222"/>
       <c r="H1" s="9" t="s">
         <v>415</v>
       </c>
@@ -38216,10 +38222,10 @@
       <c r="A3" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
       <c r="H3" s="9" t="s">
         <v>417</v>
       </c>
@@ -38341,11 +38347,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="241" t="s">
+      <c r="A13" s="223" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="242"/>
-      <c r="C13" s="243"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="225"/>
       <c r="D13" s="17" t="s">
         <v>237</v>
       </c>
@@ -38358,25 +38364,25 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="214"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="216"/>
+      <c r="A14" s="311"/>
+      <c r="B14" s="312"/>
+      <c r="C14" s="312"/>
+      <c r="D14" s="312"/>
+      <c r="E14" s="313"/>
       <c r="I14" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="316" t="s">
+      <c r="A15" s="251" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="247" t="s">
+      <c r="B15" s="295" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="249"/>
+      <c r="C15" s="293"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="294"/>
       <c r="H15" s="101" t="s">
         <v>254</v>
       </c>
@@ -38385,7 +38391,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="332"/>
+      <c r="A16" s="342"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
@@ -38395,13 +38401,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="317"/>
-      <c r="B17" s="247" t="s">
+      <c r="A17" s="252"/>
+      <c r="B17" s="295" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="248"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="249"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="294"/>
       <c r="H17" s="101" t="s">
         <v>257</v>
       </c>
@@ -38410,11 +38416,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="214"/>
-      <c r="B18" s="215"/>
-      <c r="C18" s="215"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="216"/>
+      <c r="A18" s="311"/>
+      <c r="B18" s="312"/>
+      <c r="C18" s="312"/>
+      <c r="D18" s="312"/>
+      <c r="E18" s="313"/>
       <c r="I18" t="s">
         <v>353</v>
       </c>
@@ -38442,11 +38448,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="217"/>
-      <c r="B20" s="218"/>
-      <c r="C20" s="218"/>
-      <c r="D20" s="218"/>
-      <c r="E20" s="219"/>
+      <c r="A20" s="314"/>
+      <c r="B20" s="315"/>
+      <c r="C20" s="315"/>
+      <c r="D20" s="315"/>
+      <c r="E20" s="316"/>
       <c r="I20" t="s">
         <v>353</v>
       </c>
@@ -38455,10 +38461,10 @@
       <c r="A21" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B21" s="220"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="222"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="218"/>
+      <c r="D21" s="218"/>
+      <c r="E21" s="219"/>
       <c r="H21" s="9" t="s">
         <v>236</v>
       </c>
@@ -38480,10 +38486,10 @@
       <c r="A23" s="22" t="s">
         <v>245</v>
       </c>
-      <c r="B23" s="333"/>
-      <c r="C23" s="334"/>
-      <c r="D23" s="334"/>
-      <c r="E23" s="335"/>
+      <c r="B23" s="343"/>
+      <c r="C23" s="344"/>
+      <c r="D23" s="344"/>
+      <c r="E23" s="345"/>
       <c r="H23" s="9" t="s">
         <v>432</v>
       </c>
@@ -38502,13 +38508,13 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="259" t="s">
+      <c r="A25" s="305" t="s">
         <v>248</v>
       </c>
-      <c r="B25" s="260"/>
-      <c r="C25" s="260"/>
-      <c r="D25" s="260"/>
-      <c r="E25" s="261"/>
+      <c r="B25" s="306"/>
+      <c r="C25" s="306"/>
+      <c r="D25" s="306"/>
+      <c r="E25" s="307"/>
       <c r="I25" t="s">
         <v>353</v>
       </c>
@@ -38559,13 +38565,13 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="259" t="s">
+      <c r="A30" s="305" t="s">
         <v>253</v>
       </c>
-      <c r="B30" s="260"/>
-      <c r="C30" s="260"/>
-      <c r="D30" s="260"/>
-      <c r="E30" s="261"/>
+      <c r="B30" s="306"/>
+      <c r="C30" s="306"/>
+      <c r="D30" s="306"/>
+      <c r="E30" s="307"/>
       <c r="I30" t="s">
         <v>353</v>
       </c>
@@ -38613,13 +38619,13 @@
       <c r="E34" s="12"/>
     </row>
     <row r="35" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="259" t="s">
+      <c r="A35" s="305" t="s">
         <v>254</v>
       </c>
-      <c r="B35" s="260"/>
-      <c r="C35" s="260"/>
-      <c r="D35" s="260"/>
-      <c r="E35" s="261"/>
+      <c r="B35" s="306"/>
+      <c r="C35" s="306"/>
+      <c r="D35" s="306"/>
+      <c r="E35" s="307"/>
       <c r="I35" t="s">
         <v>353</v>
       </c>
@@ -38653,13 +38659,13 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="259" t="s">
+      <c r="A38" s="305" t="s">
         <v>257</v>
       </c>
-      <c r="B38" s="260"/>
-      <c r="C38" s="260"/>
-      <c r="D38" s="260"/>
-      <c r="E38" s="261"/>
+      <c r="B38" s="306"/>
+      <c r="C38" s="306"/>
+      <c r="D38" s="306"/>
+      <c r="E38" s="307"/>
       <c r="I38" t="s">
         <v>353</v>
       </c>
@@ -38689,22 +38695,22 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="299" t="s">
         <v>258</v>
       </c>
-      <c r="B41" s="262" t="s">
+      <c r="B41" s="308" t="s">
         <v>259</v>
       </c>
-      <c r="C41" s="263"/>
-      <c r="D41" s="263"/>
-      <c r="E41" s="264"/>
+      <c r="C41" s="309"/>
+      <c r="D41" s="309"/>
+      <c r="E41" s="310"/>
       <c r="F41" s="102"/>
       <c r="I41" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="254"/>
+      <c r="A42" s="300"/>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -38715,13 +38721,13 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="255"/>
-      <c r="B43" s="262" t="s">
+      <c r="A43" s="301"/>
+      <c r="B43" s="308" t="s">
         <v>260</v>
       </c>
-      <c r="C43" s="263"/>
-      <c r="D43" s="263"/>
-      <c r="E43" s="264"/>
+      <c r="C43" s="309"/>
+      <c r="D43" s="309"/>
+      <c r="E43" s="310"/>
       <c r="F43" s="102"/>
       <c r="H43" s="9" t="s">
         <v>434</v>
@@ -38738,46 +38744,46 @@
       <c r="E44" s="105"/>
     </row>
     <row r="45" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="279" t="s">
+      <c r="A45" s="290" t="s">
         <v>435</v>
       </c>
-      <c r="B45" s="336"/>
-      <c r="C45" s="337"/>
-      <c r="D45" s="337"/>
-      <c r="E45" s="338"/>
+      <c r="B45" s="333"/>
+      <c r="C45" s="334"/>
+      <c r="D45" s="334"/>
+      <c r="E45" s="335"/>
       <c r="H45" s="106" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="280"/>
-      <c r="B46" s="339"/>
-      <c r="C46" s="340"/>
-      <c r="D46" s="340"/>
-      <c r="E46" s="341"/>
+      <c r="A46" s="291"/>
+      <c r="B46" s="336"/>
+      <c r="C46" s="337"/>
+      <c r="D46" s="337"/>
+      <c r="E46" s="338"/>
       <c r="H46" s="106" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="281"/>
-      <c r="B47" s="342"/>
-      <c r="C47" s="343"/>
-      <c r="D47" s="343"/>
-      <c r="E47" s="344"/>
+      <c r="A47" s="292"/>
+      <c r="B47" s="339"/>
+      <c r="C47" s="340"/>
+      <c r="D47" s="340"/>
+      <c r="E47" s="341"/>
       <c r="H47" s="106" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="49" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="250" t="s">
+      <c r="A49" s="239" t="s">
         <v>261</v>
       </c>
-      <c r="B49" s="251"/>
-      <c r="C49" s="251"/>
-      <c r="D49" s="251"/>
-      <c r="E49" s="252"/>
+      <c r="B49" s="240"/>
+      <c r="C49" s="240"/>
+      <c r="D49" s="240"/>
+      <c r="E49" s="241"/>
       <c r="H49" s="106" t="s">
         <v>436</v>
       </c>
@@ -38788,15 +38794,15 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="279" t="s">
+      <c r="A51" s="290" t="s">
         <v>266</v>
       </c>
-      <c r="B51" s="248" t="s">
+      <c r="B51" s="293" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="248"/>
-      <c r="D51" s="248"/>
-      <c r="E51" s="249"/>
+      <c r="C51" s="293"/>
+      <c r="D51" s="293"/>
+      <c r="E51" s="294"/>
       <c r="H51" s="106" t="s">
         <v>375</v>
       </c>
@@ -38805,7 +38811,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="280"/>
+      <c r="A52" s="291"/>
       <c r="B52" s="33"/>
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
@@ -38815,20 +38821,20 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="280"/>
-      <c r="B53" s="248" t="s">
+      <c r="A53" s="291"/>
+      <c r="B53" s="293" t="s">
         <v>268</v>
       </c>
-      <c r="C53" s="248"/>
-      <c r="D53" s="248"/>
-      <c r="E53" s="249"/>
+      <c r="C53" s="293"/>
+      <c r="D53" s="293"/>
+      <c r="E53" s="294"/>
       <c r="F53" s="39"/>
       <c r="H53" s="106" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="280"/>
+      <c r="A54" s="291"/>
       <c r="B54" s="36"/>
       <c r="C54" s="107"/>
       <c r="D54" s="107"/>
@@ -38836,21 +38842,21 @@
       <c r="F54" s="39"/>
     </row>
     <row r="55" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="281"/>
-      <c r="B55" s="247" t="s">
+      <c r="A55" s="292"/>
+      <c r="B55" s="295" t="s">
         <v>437</v>
       </c>
-      <c r="C55" s="248"/>
-      <c r="D55" s="248"/>
-      <c r="E55" s="249"/>
+      <c r="C55" s="293"/>
+      <c r="D55" s="293"/>
+      <c r="E55" s="294"/>
       <c r="F55" s="39"/>
     </row>
     <row r="56" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="282"/>
-      <c r="B56" s="283"/>
-      <c r="C56" s="283"/>
-      <c r="D56" s="283"/>
-      <c r="E56" s="284"/>
+      <c r="A56" s="296"/>
+      <c r="B56" s="297"/>
+      <c r="C56" s="297"/>
+      <c r="D56" s="297"/>
+      <c r="E56" s="298"/>
     </row>
     <row r="57" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43" t="s">
@@ -38870,25 +38876,25 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="265"/>
-      <c r="B58" s="266"/>
-      <c r="C58" s="266"/>
-      <c r="D58" s="266"/>
-      <c r="E58" s="267"/>
+      <c r="A58" s="285"/>
+      <c r="B58" s="286"/>
+      <c r="C58" s="286"/>
+      <c r="D58" s="286"/>
+      <c r="E58" s="287"/>
       <c r="I58" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="244" t="s">
+      <c r="A59" s="259" t="s">
         <v>271</v>
       </c>
-      <c r="B59" s="220" t="s">
+      <c r="B59" s="217" t="s">
         <v>439</v>
       </c>
-      <c r="C59" s="221"/>
-      <c r="D59" s="221"/>
-      <c r="E59" s="222"/>
+      <c r="C59" s="218"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="219"/>
       <c r="F59" s="18"/>
       <c r="H59" s="110" t="s">
         <v>275</v>
@@ -38898,7 +38904,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="245"/>
+      <c r="A60" s="265"/>
       <c r="B60" s="19"/>
       <c r="C60" s="12"/>
       <c r="F60" s="18"/>
@@ -38907,13 +38913,13 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="246"/>
-      <c r="B61" s="220" t="s">
+      <c r="A61" s="260"/>
+      <c r="B61" s="217" t="s">
         <v>440</v>
       </c>
-      <c r="C61" s="221"/>
-      <c r="D61" s="221"/>
-      <c r="E61" s="222"/>
+      <c r="C61" s="218"/>
+      <c r="D61" s="218"/>
+      <c r="E61" s="219"/>
       <c r="F61" s="18"/>
       <c r="H61" s="9" t="s">
         <v>441</v>
@@ -38923,11 +38929,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="265"/>
-      <c r="B62" s="266"/>
-      <c r="C62" s="266"/>
-      <c r="D62" s="266"/>
-      <c r="E62" s="267"/>
+      <c r="A62" s="285"/>
+      <c r="B62" s="286"/>
+      <c r="C62" s="286"/>
+      <c r="D62" s="286"/>
+      <c r="E62" s="287"/>
       <c r="I62" t="s">
         <v>353</v>
       </c>
@@ -39057,35 +39063,35 @@
       <c r="A74" s="9"/>
     </row>
     <row r="75" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="268" t="s">
+      <c r="A75" s="230" t="s">
         <v>285</v>
       </c>
-      <c r="B75" s="269"/>
-      <c r="C75" s="269"/>
-      <c r="D75" s="269"/>
-      <c r="E75" s="270"/>
+      <c r="B75" s="231"/>
+      <c r="C75" s="231"/>
+      <c r="D75" s="231"/>
+      <c r="E75" s="232"/>
       <c r="H75" s="9" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="271" t="s">
+      <c r="A76" s="288" t="s">
         <v>286</v>
       </c>
-      <c r="B76" s="273"/>
-      <c r="C76" s="274"/>
-      <c r="D76" s="274"/>
-      <c r="E76" s="275"/>
+      <c r="B76" s="276"/>
+      <c r="C76" s="277"/>
+      <c r="D76" s="277"/>
+      <c r="E76" s="278"/>
       <c r="H76" s="78" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="272"/>
-      <c r="B77" s="276"/>
-      <c r="C77" s="277"/>
-      <c r="D77" s="277"/>
-      <c r="E77" s="278"/>
+      <c r="A77" s="289"/>
+      <c r="B77" s="279"/>
+      <c r="C77" s="280"/>
+      <c r="D77" s="280"/>
+      <c r="E77" s="281"/>
       <c r="H77" s="9" t="s">
         <v>286</v>
       </c>
@@ -39098,15 +39104,15 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="293" t="s">
+      <c r="A79" s="268" t="s">
         <v>287</v>
       </c>
-      <c r="B79" s="294"/>
-      <c r="C79" s="295"/>
-      <c r="D79" s="296" t="s">
+      <c r="B79" s="269"/>
+      <c r="C79" s="270"/>
+      <c r="D79" s="271" t="s">
         <v>288</v>
       </c>
-      <c r="E79" s="297"/>
+      <c r="E79" s="272"/>
       <c r="H79" s="9" t="s">
         <v>448</v>
       </c>
@@ -39122,10 +39128,10 @@
       <c r="A81" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B81" s="298"/>
-      <c r="C81" s="299"/>
-      <c r="D81" s="299"/>
-      <c r="E81" s="300"/>
+      <c r="B81" s="273"/>
+      <c r="C81" s="274"/>
+      <c r="D81" s="274"/>
+      <c r="E81" s="275"/>
       <c r="H81" s="113" t="s">
         <v>373</v>
       </c>
@@ -39135,23 +39141,23 @@
       <c r="B82" s="68"/>
     </row>
     <row r="83" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="244" t="s">
+      <c r="A83" s="259" t="s">
         <v>290</v>
       </c>
-      <c r="B83" s="273"/>
-      <c r="C83" s="274"/>
-      <c r="D83" s="274"/>
-      <c r="E83" s="275"/>
+      <c r="B83" s="276"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
+      <c r="E83" s="278"/>
       <c r="H83" s="9" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="246"/>
-      <c r="B84" s="276"/>
-      <c r="C84" s="277"/>
-      <c r="D84" s="277"/>
-      <c r="E84" s="278"/>
+      <c r="A84" s="260"/>
+      <c r="B84" s="279"/>
+      <c r="C84" s="280"/>
+      <c r="D84" s="280"/>
+      <c r="E84" s="281"/>
       <c r="H84" s="9" t="s">
         <v>449</v>
       </c>
@@ -39160,31 +39166,31 @@
       <c r="A85" s="69"/>
     </row>
     <row r="86" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="244" t="s">
+      <c r="A86" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="B86" s="273"/>
-      <c r="C86" s="274"/>
-      <c r="D86" s="274"/>
-      <c r="E86" s="275"/>
+      <c r="B86" s="276"/>
+      <c r="C86" s="277"/>
+      <c r="D86" s="277"/>
+      <c r="E86" s="278"/>
       <c r="H86" s="113" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="245"/>
-      <c r="B87" s="301"/>
-      <c r="C87" s="302"/>
-      <c r="D87" s="302"/>
-      <c r="E87" s="303"/>
+      <c r="A87" s="265"/>
+      <c r="B87" s="282"/>
+      <c r="C87" s="283"/>
+      <c r="D87" s="283"/>
+      <c r="E87" s="284"/>
       <c r="H87" s="103"/>
     </row>
     <row r="88" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="246"/>
-      <c r="B88" s="276"/>
-      <c r="C88" s="277"/>
-      <c r="D88" s="277"/>
-      <c r="E88" s="278"/>
+      <c r="A88" s="260"/>
+      <c r="B88" s="279"/>
+      <c r="C88" s="280"/>
+      <c r="D88" s="280"/>
+      <c r="E88" s="281"/>
       <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -39192,13 +39198,13 @@
       <c r="B89" s="68"/>
     </row>
     <row r="90" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="268" t="s">
+      <c r="A90" s="230" t="s">
         <v>292</v>
       </c>
-      <c r="B90" s="269"/>
-      <c r="C90" s="269"/>
-      <c r="D90" s="269"/>
-      <c r="E90" s="270"/>
+      <c r="B90" s="231"/>
+      <c r="C90" s="231"/>
+      <c r="D90" s="231"/>
+      <c r="E90" s="232"/>
       <c r="H90" s="78" t="s">
         <v>292</v>
       </c>
@@ -39207,10 +39213,10 @@
       <c r="A91" s="78"/>
     </row>
     <row r="92" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="285" t="s">
+      <c r="A92" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="B92" s="286"/>
+      <c r="B92" s="264"/>
       <c r="C92" s="12"/>
       <c r="D92" s="13" t="s">
         <v>294</v>
@@ -39232,10 +39238,10 @@
       <c r="A94" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B94" s="220"/>
-      <c r="C94" s="221"/>
-      <c r="D94" s="221"/>
-      <c r="E94" s="222"/>
+      <c r="B94" s="217"/>
+      <c r="C94" s="218"/>
+      <c r="D94" s="218"/>
+      <c r="E94" s="219"/>
       <c r="H94" s="9" t="s">
         <v>452</v>
       </c>
@@ -39251,10 +39257,10 @@
       <c r="A96" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B96" s="220"/>
-      <c r="C96" s="221"/>
-      <c r="D96" s="221"/>
-      <c r="E96" s="222"/>
+      <c r="B96" s="217"/>
+      <c r="C96" s="218"/>
+      <c r="D96" s="218"/>
+      <c r="E96" s="219"/>
       <c r="F96" s="18"/>
       <c r="H96" s="9" t="s">
         <v>297</v>
@@ -39293,20 +39299,20 @@
       <c r="H99" s="55"/>
     </row>
     <row r="100" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="244" t="s">
+      <c r="A100" s="259" t="s">
         <v>299</v>
       </c>
-      <c r="B100" s="220"/>
-      <c r="C100" s="221"/>
-      <c r="D100" s="221"/>
-      <c r="E100" s="222"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="218"/>
+      <c r="D100" s="218"/>
+      <c r="E100" s="219"/>
       <c r="F100" s="111"/>
       <c r="H100" s="9" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="245"/>
+      <c r="A101" s="265"/>
       <c r="B101" s="76"/>
       <c r="C101" s="77"/>
       <c r="D101" s="75"/>
@@ -39315,11 +39321,11 @@
       <c r="H101" s="9"/>
     </row>
     <row r="102" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="246"/>
-      <c r="B102" s="220"/>
-      <c r="C102" s="221"/>
-      <c r="D102" s="221"/>
-      <c r="E102" s="222"/>
+      <c r="A102" s="260"/>
+      <c r="B102" s="217"/>
+      <c r="C102" s="218"/>
+      <c r="D102" s="218"/>
+      <c r="E102" s="219"/>
       <c r="F102" s="111"/>
       <c r="H102" s="9" t="s">
         <v>453</v>
@@ -39333,23 +39339,23 @@
       <c r="E103" s="12"/>
     </row>
     <row r="104" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="316" t="s">
+      <c r="A104" s="251" t="s">
         <v>300</v>
       </c>
-      <c r="B104" s="287"/>
-      <c r="C104" s="288"/>
-      <c r="D104" s="288"/>
-      <c r="E104" s="318"/>
+      <c r="B104" s="253"/>
+      <c r="C104" s="254"/>
+      <c r="D104" s="254"/>
+      <c r="E104" s="255"/>
       <c r="H104" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="317"/>
-      <c r="B105" s="291"/>
-      <c r="C105" s="292"/>
-      <c r="D105" s="292"/>
-      <c r="E105" s="319"/>
+      <c r="A105" s="252"/>
+      <c r="B105" s="256"/>
+      <c r="C105" s="257"/>
+      <c r="D105" s="257"/>
+      <c r="E105" s="258"/>
       <c r="H105" s="9" t="s">
         <v>301</v>
       </c>
@@ -39360,43 +39366,43 @@
       <c r="E106" s="12"/>
     </row>
     <row r="107" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="244" t="s">
+      <c r="A107" s="259" t="s">
         <v>301</v>
       </c>
-      <c r="B107" s="287"/>
-      <c r="C107" s="288"/>
-      <c r="D107" s="288"/>
-      <c r="E107" s="318"/>
+      <c r="B107" s="253"/>
+      <c r="C107" s="254"/>
+      <c r="D107" s="254"/>
+      <c r="E107" s="255"/>
     </row>
     <row r="108" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="246"/>
-      <c r="B108" s="291"/>
-      <c r="C108" s="292"/>
-      <c r="D108" s="292"/>
-      <c r="E108" s="319"/>
+      <c r="A108" s="260"/>
+      <c r="B108" s="256"/>
+      <c r="C108" s="257"/>
+      <c r="D108" s="257"/>
+      <c r="E108" s="258"/>
     </row>
     <row r="109" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9"/>
     </row>
     <row r="110" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="111" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="345" t="s">
+      <c r="A111" s="332" t="s">
         <v>302</v>
       </c>
-      <c r="B111" s="320"/>
-      <c r="C111" s="320"/>
-      <c r="D111" s="320"/>
-      <c r="E111" s="320"/>
+      <c r="B111" s="261"/>
+      <c r="C111" s="261"/>
+      <c r="D111" s="261"/>
+      <c r="E111" s="261"/>
       <c r="H111" s="78" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="285" t="s">
+      <c r="A112" s="262" t="s">
         <v>303</v>
       </c>
-      <c r="B112" s="321"/>
-      <c r="C112" s="286"/>
+      <c r="B112" s="263"/>
+      <c r="C112" s="264"/>
       <c r="D112" s="13" t="s">
         <v>304</v>
       </c>
@@ -39406,11 +39412,11 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="304"/>
-      <c r="B113" s="305"/>
-      <c r="C113" s="305"/>
-      <c r="D113" s="305"/>
-      <c r="E113" s="306"/>
+      <c r="A113" s="242"/>
+      <c r="B113" s="243"/>
+      <c r="C113" s="243"/>
+      <c r="D113" s="243"/>
+      <c r="E113" s="244"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45" t="s">
@@ -39439,10 +39445,10 @@
       <c r="A116" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B116" s="220"/>
-      <c r="C116" s="221"/>
-      <c r="D116" s="221"/>
-      <c r="E116" s="222"/>
+      <c r="B116" s="217"/>
+      <c r="C116" s="218"/>
+      <c r="D116" s="218"/>
+      <c r="E116" s="219"/>
       <c r="H116" s="9" t="s">
         <v>306</v>
       </c>
@@ -39494,11 +39500,11 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="307"/>
-      <c r="B121" s="308"/>
-      <c r="C121" s="308"/>
-      <c r="D121" s="308"/>
-      <c r="E121" s="309"/>
+      <c r="A121" s="245"/>
+      <c r="B121" s="246"/>
+      <c r="C121" s="246"/>
+      <c r="D121" s="246"/>
+      <c r="E121" s="247"/>
     </row>
     <row r="122" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45" t="s">
@@ -39527,10 +39533,10 @@
       <c r="A124" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B124" s="220"/>
-      <c r="C124" s="221"/>
-      <c r="D124" s="221"/>
-      <c r="E124" s="222"/>
+      <c r="B124" s="217"/>
+      <c r="C124" s="218"/>
+      <c r="D124" s="218"/>
+      <c r="E124" s="219"/>
       <c r="H124" s="9" t="s">
         <v>457</v>
       </c>
@@ -39582,11 +39588,11 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="310"/>
-      <c r="B129" s="311"/>
-      <c r="C129" s="311"/>
-      <c r="D129" s="311"/>
-      <c r="E129" s="312"/>
+      <c r="A129" s="236"/>
+      <c r="B129" s="237"/>
+      <c r="C129" s="237"/>
+      <c r="D129" s="237"/>
+      <c r="E129" s="238"/>
     </row>
     <row r="130" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="45" t="s">
@@ -39612,10 +39618,10 @@
       <c r="A132" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B132" s="313"/>
-      <c r="C132" s="314"/>
-      <c r="D132" s="314"/>
-      <c r="E132" s="315"/>
+      <c r="B132" s="248"/>
+      <c r="C132" s="249"/>
+      <c r="D132" s="249"/>
+      <c r="E132" s="250"/>
     </row>
     <row r="133" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="116"/>
@@ -39658,11 +39664,11 @@
       <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="310"/>
-      <c r="B137" s="311"/>
-      <c r="C137" s="311"/>
-      <c r="D137" s="311"/>
-      <c r="E137" s="312"/>
+      <c r="A137" s="236"/>
+      <c r="B137" s="237"/>
+      <c r="C137" s="237"/>
+      <c r="D137" s="237"/>
+      <c r="E137" s="238"/>
     </row>
     <row r="138" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="45" t="s">
@@ -39688,10 +39694,10 @@
       <c r="A140" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B140" s="220"/>
-      <c r="C140" s="221"/>
-      <c r="D140" s="221"/>
-      <c r="E140" s="222"/>
+      <c r="B140" s="217"/>
+      <c r="C140" s="218"/>
+      <c r="D140" s="218"/>
+      <c r="E140" s="219"/>
     </row>
     <row r="141" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="112"/>
@@ -39773,16 +39779,45 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A129:E129"/>
-    <mergeCell ref="B132:E132"/>
-    <mergeCell ref="A137:E137"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="B116:E116"/>
-    <mergeCell ref="A121:E121"/>
-    <mergeCell ref="B124:E124"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:E47"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A51:A55"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B61:E61"/>
+    <mergeCell ref="A62:E62"/>
+    <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E77"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="B81:E81"/>
     <mergeCell ref="A107:A108"/>
     <mergeCell ref="B107:E108"/>
     <mergeCell ref="A86:A88"/>
@@ -39796,45 +39831,16 @@
     <mergeCell ref="B102:E102"/>
     <mergeCell ref="A104:A105"/>
     <mergeCell ref="B104:E105"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:E58"/>
-    <mergeCell ref="A59:A61"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B61:E61"/>
-    <mergeCell ref="A62:E62"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E77"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:E47"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A51:A55"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A129:E129"/>
+    <mergeCell ref="B132:E132"/>
+    <mergeCell ref="A137:E137"/>
+    <mergeCell ref="B140:E140"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="A121:E121"/>
+    <mergeCell ref="B124:E124"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -39849,7 +39855,7 @@
   </sheetPr>
   <dimension ref="A1:J175"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
@@ -42557,8 +42563,8 @@
   </sheetPr>
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42571,13 +42577,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="347" t="s">
+      <c r="A1" s="350" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="347"/>
-      <c r="C1" s="347"/>
-      <c r="D1" s="347"/>
-      <c r="E1" s="347"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
       <c r="F1" s="14"/>
       <c r="G1" s="125"/>
       <c r="H1" s="125"/>
@@ -42589,11 +42595,11 @@
       <c r="A2" s="126" t="s">
         <v>228</v>
       </c>
-      <c r="B2" s="329" t="s">
+      <c r="B2" s="214" t="s">
         <v>475</v>
       </c>
-      <c r="C2" s="330"/>
-      <c r="D2" s="331"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="216"/>
       <c r="F2" s="14"/>
       <c r="G2" s="125"/>
       <c r="H2" s="125"/>
@@ -42613,9 +42619,9 @@
       <c r="A4" s="126" t="s">
         <v>245</v>
       </c>
-      <c r="B4" s="329"/>
-      <c r="C4" s="330"/>
-      <c r="D4" s="331"/>
+      <c r="B4" s="214"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="216"/>
       <c r="F4" s="14"/>
       <c r="G4" s="125"/>
       <c r="H4" s="125"/>
@@ -42635,9 +42641,9 @@
       <c r="A6" s="126" t="s">
         <v>476</v>
       </c>
-      <c r="B6" s="329"/>
-      <c r="C6" s="330"/>
-      <c r="D6" s="331"/>
+      <c r="B6" s="214"/>
+      <c r="C6" s="215"/>
+      <c r="D6" s="216"/>
       <c r="F6" s="14"/>
       <c r="G6" s="125"/>
       <c r="H6" s="125"/>
@@ -42659,11 +42665,11 @@
       <c r="K7" s="125"/>
     </row>
     <row r="8" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="348"/>
-      <c r="B8" s="348"/>
-      <c r="C8" s="348"/>
-      <c r="D8" s="348"/>
-      <c r="E8" s="348"/>
+      <c r="A8" s="351"/>
+      <c r="B8" s="351"/>
+      <c r="C8" s="351"/>
+      <c r="D8" s="351"/>
+      <c r="E8" s="351"/>
       <c r="F8" s="14"/>
       <c r="G8" s="125"/>
       <c r="H8" s="125"/>
@@ -42675,11 +42681,11 @@
       <c r="A9" s="126" t="s">
         <v>477</v>
       </c>
-      <c r="B9" s="329" t="s">
+      <c r="B9" s="214" t="s">
         <v>478</v>
       </c>
-      <c r="C9" s="330"/>
-      <c r="D9" s="331"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="216"/>
       <c r="E9" s="125"/>
       <c r="F9" s="14"/>
       <c r="G9" s="125"/>
@@ -42702,15 +42708,15 @@
       <c r="K10" s="125"/>
     </row>
     <row r="11" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="349" t="s">
+      <c r="A11" s="347" t="s">
         <v>479</v>
       </c>
-      <c r="B11" s="330" t="s">
+      <c r="B11" s="215" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="330"/>
-      <c r="D11" s="330"/>
-      <c r="E11" s="331"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="216"/>
       <c r="F11" s="14"/>
       <c r="G11" s="127"/>
       <c r="H11" s="125"/>
@@ -42719,7 +42725,7 @@
       <c r="K11" s="125"/>
     </row>
     <row r="12" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="350"/>
+      <c r="A12" s="348"/>
       <c r="B12" s="125"/>
       <c r="C12" s="125"/>
       <c r="D12" s="125"/>
@@ -42732,11 +42738,11 @@
       <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="351"/>
-      <c r="B13" s="330"/>
-      <c r="C13" s="330"/>
-      <c r="D13" s="330"/>
-      <c r="E13" s="331"/>
+      <c r="A13" s="349"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="216"/>
       <c r="F13" s="125"/>
       <c r="G13" s="125"/>
       <c r="H13" s="125"/>
@@ -42829,20 +42835,20 @@
       <c r="E22" s="125"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="349" t="s">
+      <c r="A23" s="347" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="273"/>
-      <c r="C23" s="274"/>
-      <c r="D23" s="274"/>
-      <c r="E23" s="275"/>
+      <c r="B23" s="276"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="278"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="351"/>
-      <c r="B24" s="276"/>
-      <c r="C24" s="277"/>
-      <c r="D24" s="277"/>
-      <c r="E24" s="278"/>
+      <c r="A24" s="349"/>
+      <c r="B24" s="279"/>
+      <c r="C24" s="280"/>
+      <c r="D24" s="280"/>
+      <c r="E24" s="281"/>
     </row>
     <row r="25" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="346"/>
@@ -42855,11 +42861,11 @@
       <c r="A26" s="126" t="s">
         <v>487</v>
       </c>
-      <c r="B26" s="329" t="s">
+      <c r="B26" s="214" t="s">
         <v>478</v>
       </c>
-      <c r="C26" s="330"/>
-      <c r="D26" s="331"/>
+      <c r="C26" s="215"/>
+      <c r="D26" s="216"/>
       <c r="E26" s="125"/>
     </row>
     <row r="27" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -42870,29 +42876,29 @@
       <c r="E27" s="125"/>
     </row>
     <row r="28" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="349" t="s">
+      <c r="A28" s="347" t="s">
         <v>479</v>
       </c>
-      <c r="B28" s="330" t="s">
+      <c r="B28" s="215" t="s">
         <v>488</v>
       </c>
-      <c r="C28" s="330"/>
-      <c r="D28" s="330"/>
-      <c r="E28" s="331"/>
+      <c r="C28" s="215"/>
+      <c r="D28" s="215"/>
+      <c r="E28" s="216"/>
     </row>
     <row r="29" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="350"/>
+      <c r="A29" s="348"/>
       <c r="B29" s="125"/>
       <c r="C29" s="125"/>
       <c r="D29" s="125"/>
       <c r="E29" s="125"/>
     </row>
     <row r="30" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="351"/>
-      <c r="B30" s="330"/>
-      <c r="C30" s="330"/>
-      <c r="D30" s="330"/>
-      <c r="E30" s="331"/>
+      <c r="A30" s="349"/>
+      <c r="B30" s="215"/>
+      <c r="C30" s="215"/>
+      <c r="D30" s="215"/>
+      <c r="E30" s="216"/>
     </row>
     <row r="31" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
@@ -42973,20 +42979,20 @@
       <c r="E39" s="125"/>
     </row>
     <row r="40" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="349" t="s">
+      <c r="A40" s="347" t="s">
         <v>136</v>
       </c>
-      <c r="B40" s="273"/>
-      <c r="C40" s="274"/>
-      <c r="D40" s="274"/>
-      <c r="E40" s="275"/>
+      <c r="B40" s="276"/>
+      <c r="C40" s="277"/>
+      <c r="D40" s="277"/>
+      <c r="E40" s="278"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="351"/>
-      <c r="B41" s="276"/>
-      <c r="C41" s="277"/>
-      <c r="D41" s="277"/>
-      <c r="E41" s="278"/>
+      <c r="A41" s="349"/>
+      <c r="B41" s="279"/>
+      <c r="C41" s="280"/>
+      <c r="D41" s="280"/>
+      <c r="E41" s="281"/>
     </row>
     <row r="42" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="346"/>
@@ -42997,13 +43003,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:E41"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:D2"/>
@@ -43016,6 +43015,13 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E24"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:E41"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43026,8 +43032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="A1:F27"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43447,7 +43453,7 @@
   </sheetPr>
   <dimension ref="A1:L288"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -43461,13 +43467,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="220" t="s">
         <v>489</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="240"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="222"/>
     </row>
     <row r="2" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
@@ -43476,10 +43482,10 @@
       <c r="A3" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="222"/>
+      <c r="B3" s="217"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="219"/>
     </row>
     <row r="4" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
@@ -43510,12 +43516,12 @@
       <c r="A7" s="74" t="s">
         <v>491</v>
       </c>
-      <c r="B7" s="247" t="s">
+      <c r="B7" s="295" t="s">
         <v>492</v>
       </c>
-      <c r="C7" s="248"/>
-      <c r="D7" s="248"/>
-      <c r="E7" s="249"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="294"/>
       <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -43564,66 +43570,66 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="241" t="s">
+      <c r="A13" s="223" t="s">
         <v>236</v>
       </c>
-      <c r="B13" s="242"/>
-      <c r="C13" s="243"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="225"/>
       <c r="D13" s="17" t="s">
         <v>304</v>
       </c>
       <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="214"/>
-      <c r="B14" s="215"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="215"/>
-      <c r="E14" s="216"/>
+      <c r="A14" s="311"/>
+      <c r="B14" s="312"/>
+      <c r="C14" s="312"/>
+      <c r="D14" s="312"/>
+      <c r="E14" s="313"/>
     </row>
     <row r="15" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="316" t="s">
+      <c r="A15" s="251" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="247" t="s">
+      <c r="B15" s="295" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="248"/>
-      <c r="D15" s="248"/>
-      <c r="E15" s="249"/>
+      <c r="C15" s="293"/>
+      <c r="D15" s="293"/>
+      <c r="E15" s="294"/>
       <c r="I15" s="125"/>
     </row>
     <row r="16" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="332"/>
+      <c r="A16" s="342"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
     </row>
     <row r="17" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="317"/>
-      <c r="B17" s="247" t="s">
+      <c r="A17" s="252"/>
+      <c r="B17" s="295" t="s">
         <v>240</v>
       </c>
-      <c r="C17" s="248"/>
-      <c r="D17" s="248"/>
-      <c r="E17" s="249"/>
+      <c r="C17" s="293"/>
+      <c r="D17" s="293"/>
+      <c r="E17" s="294"/>
     </row>
     <row r="18" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="217"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="219"/>
+      <c r="A18" s="314"/>
+      <c r="B18" s="315"/>
+      <c r="C18" s="315"/>
+      <c r="D18" s="315"/>
+      <c r="E18" s="316"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B19" s="220"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="222"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="219"/>
     </row>
     <row r="20" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
@@ -43654,24 +43660,24 @@
       <c r="A23" s="352" t="s">
         <v>246</v>
       </c>
-      <c r="B23" s="226"/>
-      <c r="C23" s="227"/>
-      <c r="D23" s="227"/>
-      <c r="E23" s="228"/>
+      <c r="B23" s="320"/>
+      <c r="C23" s="321"/>
+      <c r="D23" s="321"/>
+      <c r="E23" s="322"/>
     </row>
     <row r="24" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="353"/>
-      <c r="B24" s="229"/>
-      <c r="C24" s="230"/>
-      <c r="D24" s="230"/>
-      <c r="E24" s="231"/>
+      <c r="B24" s="323"/>
+      <c r="C24" s="324"/>
+      <c r="D24" s="324"/>
+      <c r="E24" s="325"/>
     </row>
     <row r="25" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="354"/>
-      <c r="B25" s="232"/>
-      <c r="C25" s="233"/>
-      <c r="D25" s="233"/>
-      <c r="E25" s="234"/>
+      <c r="B25" s="326"/>
+      <c r="C25" s="327"/>
+      <c r="D25" s="327"/>
+      <c r="E25" s="328"/>
     </row>
     <row r="26" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -43684,34 +43690,34 @@
       <c r="A27" s="355" t="s">
         <v>247</v>
       </c>
-      <c r="B27" s="226"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
-      <c r="E27" s="228"/>
+      <c r="B27" s="320"/>
+      <c r="C27" s="321"/>
+      <c r="D27" s="321"/>
+      <c r="E27" s="322"/>
     </row>
     <row r="28" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="356"/>
-      <c r="B28" s="229"/>
-      <c r="C28" s="230"/>
-      <c r="D28" s="230"/>
-      <c r="E28" s="231"/>
+      <c r="B28" s="323"/>
+      <c r="C28" s="324"/>
+      <c r="D28" s="324"/>
+      <c r="E28" s="325"/>
     </row>
     <row r="29" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="357"/>
-      <c r="B29" s="232"/>
-      <c r="C29" s="233"/>
-      <c r="D29" s="233"/>
-      <c r="E29" s="234"/>
+      <c r="B29" s="326"/>
+      <c r="C29" s="327"/>
+      <c r="D29" s="327"/>
+      <c r="E29" s="328"/>
     </row>
     <row r="30" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="259" t="s">
+      <c r="A31" s="305" t="s">
         <v>248</v>
       </c>
-      <c r="B31" s="260"/>
-      <c r="C31" s="260"/>
-      <c r="D31" s="260"/>
-      <c r="E31" s="261"/>
+      <c r="B31" s="306"/>
+      <c r="C31" s="306"/>
+      <c r="D31" s="306"/>
+      <c r="E31" s="307"/>
     </row>
     <row r="32" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="26" t="s">
@@ -43750,13 +43756,13 @@
       <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="259" t="s">
+      <c r="A36" s="305" t="s">
         <v>253</v>
       </c>
-      <c r="B36" s="260"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="261"/>
+      <c r="B36" s="306"/>
+      <c r="C36" s="306"/>
+      <c r="D36" s="306"/>
+      <c r="E36" s="307"/>
     </row>
     <row r="37" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="26" t="s">
@@ -43795,13 +43801,13 @@
       <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="259" t="s">
+      <c r="A41" s="305" t="s">
         <v>254</v>
       </c>
-      <c r="B41" s="260"/>
-      <c r="C41" s="260"/>
-      <c r="D41" s="260"/>
-      <c r="E41" s="261"/>
+      <c r="B41" s="306"/>
+      <c r="C41" s="306"/>
+      <c r="D41" s="306"/>
+      <c r="E41" s="307"/>
     </row>
     <row r="42" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="26" t="s">
@@ -43822,13 +43828,13 @@
       <c r="E43" s="12"/>
     </row>
     <row r="44" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="259" t="s">
+      <c r="A44" s="305" t="s">
         <v>257</v>
       </c>
-      <c r="B44" s="260"/>
-      <c r="C44" s="260"/>
-      <c r="D44" s="260"/>
-      <c r="E44" s="261"/>
+      <c r="B44" s="306"/>
+      <c r="C44" s="306"/>
+      <c r="D44" s="306"/>
+      <c r="E44" s="307"/>
     </row>
     <row r="45" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="26" t="s">
@@ -43849,72 +43855,72 @@
       <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="253" t="s">
+      <c r="A47" s="299" t="s">
         <v>258</v>
       </c>
-      <c r="B47" s="262" t="s">
+      <c r="B47" s="308" t="s">
         <v>259</v>
       </c>
-      <c r="C47" s="263"/>
-      <c r="D47" s="263"/>
-      <c r="E47" s="264"/>
+      <c r="C47" s="309"/>
+      <c r="D47" s="309"/>
+      <c r="E47" s="310"/>
     </row>
     <row r="48" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="254"/>
+      <c r="A48" s="300"/>
       <c r="B48" s="29"/>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
       <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="255"/>
-      <c r="B49" s="262" t="s">
+      <c r="A49" s="301"/>
+      <c r="B49" s="308" t="s">
         <v>260</v>
       </c>
-      <c r="C49" s="263"/>
-      <c r="D49" s="263"/>
-      <c r="E49" s="264"/>
+      <c r="C49" s="309"/>
+      <c r="D49" s="309"/>
+      <c r="E49" s="310"/>
     </row>
     <row r="50" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="250" t="s">
+      <c r="A50" s="239" t="s">
         <v>495</v>
       </c>
-      <c r="B50" s="251"/>
-      <c r="C50" s="251"/>
-      <c r="D50" s="251"/>
-      <c r="E50" s="252"/>
+      <c r="B50" s="240"/>
+      <c r="C50" s="240"/>
+      <c r="D50" s="240"/>
+      <c r="E50" s="241"/>
     </row>
     <row r="51" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="52" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="253" t="s">
+      <c r="A52" s="299" t="s">
         <v>262</v>
       </c>
-      <c r="B52" s="247" t="s">
+      <c r="B52" s="295" t="s">
         <v>496</v>
       </c>
-      <c r="C52" s="248"/>
-      <c r="D52" s="248"/>
-      <c r="E52" s="249"/>
+      <c r="C52" s="293"/>
+      <c r="D52" s="293"/>
+      <c r="E52" s="294"/>
     </row>
     <row r="53" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="254"/>
+      <c r="A53" s="300"/>
       <c r="B53" s="32"/>
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="254"/>
-      <c r="B54" s="247" t="s">
+      <c r="A54" s="300"/>
+      <c r="B54" s="295" t="s">
         <v>264</v>
       </c>
-      <c r="C54" s="248"/>
-      <c r="D54" s="248"/>
-      <c r="E54" s="249"/>
+      <c r="C54" s="293"/>
+      <c r="D54" s="293"/>
+      <c r="E54" s="294"/>
       <c r="F54" s="35"/>
     </row>
     <row r="55" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="254"/>
+      <c r="A55" s="300"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -43922,52 +43928,52 @@
       <c r="F55" s="35"/>
     </row>
     <row r="56" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="255"/>
+      <c r="A56" s="301"/>
       <c r="B56" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C56" s="247"/>
-      <c r="D56" s="248"/>
-      <c r="E56" s="249"/>
+      <c r="C56" s="295"/>
+      <c r="D56" s="293"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="35"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="256"/>
-      <c r="B57" s="257"/>
-      <c r="C57" s="257"/>
-      <c r="D57" s="257"/>
-      <c r="E57" s="258"/>
+      <c r="A57" s="302"/>
+      <c r="B57" s="303"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="304"/>
     </row>
     <row r="58" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="279" t="s">
+      <c r="A58" s="290" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="248" t="s">
+      <c r="B58" s="293" t="s">
         <v>267</v>
       </c>
-      <c r="C58" s="248"/>
-      <c r="D58" s="248"/>
-      <c r="E58" s="249"/>
+      <c r="C58" s="293"/>
+      <c r="D58" s="293"/>
+      <c r="E58" s="294"/>
     </row>
     <row r="59" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="280"/>
+      <c r="A59" s="291"/>
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="33"/>
       <c r="E59" s="34"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="280"/>
-      <c r="B60" s="248" t="s">
+      <c r="A60" s="291"/>
+      <c r="B60" s="293" t="s">
         <v>268</v>
       </c>
-      <c r="C60" s="248"/>
-      <c r="D60" s="248"/>
-      <c r="E60" s="249"/>
+      <c r="C60" s="293"/>
+      <c r="D60" s="293"/>
+      <c r="E60" s="294"/>
       <c r="F60" s="39"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="280"/>
+      <c r="A61" s="291"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -43975,21 +43981,21 @@
       <c r="F61" s="39"/>
     </row>
     <row r="62" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="281"/>
+      <c r="A62" s="292"/>
       <c r="B62" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="C62" s="247"/>
-      <c r="D62" s="248"/>
-      <c r="E62" s="249"/>
+      <c r="C62" s="295"/>
+      <c r="D62" s="293"/>
+      <c r="E62" s="294"/>
       <c r="F62" s="39"/>
     </row>
     <row r="63" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="282"/>
-      <c r="B63" s="283"/>
-      <c r="C63" s="283"/>
-      <c r="D63" s="283"/>
-      <c r="E63" s="284"/>
+      <c r="A63" s="296"/>
+      <c r="B63" s="297"/>
+      <c r="C63" s="297"/>
+      <c r="D63" s="297"/>
+      <c r="E63" s="298"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
@@ -44005,46 +44011,46 @@
       <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="265"/>
-      <c r="B65" s="266"/>
-      <c r="C65" s="266"/>
-      <c r="D65" s="266"/>
-      <c r="E65" s="267"/>
+      <c r="A65" s="285"/>
+      <c r="B65" s="286"/>
+      <c r="C65" s="286"/>
+      <c r="D65" s="286"/>
+      <c r="E65" s="287"/>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="244" t="s">
+      <c r="A66" s="259" t="s">
         <v>271</v>
       </c>
-      <c r="B66" s="220" t="s">
+      <c r="B66" s="217" t="s">
         <v>272</v>
       </c>
-      <c r="C66" s="221"/>
-      <c r="D66" s="221"/>
-      <c r="E66" s="222"/>
+      <c r="C66" s="218"/>
+      <c r="D66" s="218"/>
+      <c r="E66" s="219"/>
       <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="245"/>
+      <c r="A67" s="265"/>
       <c r="B67" s="19"/>
       <c r="C67" s="12"/>
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="246"/>
-      <c r="B68" s="220" t="s">
+      <c r="A68" s="260"/>
+      <c r="B68" s="217" t="s">
         <v>273</v>
       </c>
-      <c r="C68" s="221"/>
-      <c r="D68" s="221"/>
-      <c r="E68" s="222"/>
+      <c r="C68" s="218"/>
+      <c r="D68" s="218"/>
+      <c r="E68" s="219"/>
       <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="265"/>
-      <c r="B69" s="266"/>
-      <c r="C69" s="266"/>
-      <c r="D69" s="266"/>
-      <c r="E69" s="267"/>
+      <c r="A69" s="285"/>
+      <c r="B69" s="286"/>
+      <c r="C69" s="286"/>
+      <c r="D69" s="286"/>
+      <c r="E69" s="287"/>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45" t="s">
@@ -44184,13 +44190,13 @@
       <c r="L81" s="18"/>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="268" t="s">
+      <c r="A82" s="230" t="s">
         <v>285</v>
       </c>
-      <c r="B82" s="269"/>
-      <c r="C82" s="269"/>
-      <c r="D82" s="269"/>
-      <c r="E82" s="270"/>
+      <c r="B82" s="231"/>
+      <c r="C82" s="231"/>
+      <c r="D82" s="231"/>
+      <c r="E82" s="232"/>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="55"/>
@@ -44200,13 +44206,13 @@
       <c r="L82" s="18"/>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="271" t="s">
+      <c r="A83" s="288" t="s">
         <v>286</v>
       </c>
-      <c r="B83" s="273"/>
-      <c r="C83" s="274"/>
-      <c r="D83" s="274"/>
-      <c r="E83" s="275"/>
+      <c r="B83" s="276"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
+      <c r="E83" s="278"/>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
       <c r="H83" s="57"/>
@@ -44216,11 +44222,11 @@
       <c r="L83" s="18"/>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="272"/>
-      <c r="B84" s="276"/>
-      <c r="C84" s="277"/>
-      <c r="D84" s="277"/>
-      <c r="E84" s="278"/>
+      <c r="A84" s="289"/>
+      <c r="B84" s="279"/>
+      <c r="C84" s="280"/>
+      <c r="D84" s="280"/>
+      <c r="E84" s="281"/>
       <c r="F84" s="18"/>
       <c r="G84" s="18"/>
       <c r="H84" s="55"/>
@@ -44241,15 +44247,15 @@
       <c r="L85" s="18"/>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="293" t="s">
+      <c r="A86" s="268" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="294"/>
-      <c r="C86" s="295"/>
-      <c r="D86" s="296" t="s">
+      <c r="B86" s="269"/>
+      <c r="C86" s="270"/>
+      <c r="D86" s="271" t="s">
         <v>288</v>
       </c>
-      <c r="E86" s="297"/>
+      <c r="E86" s="272"/>
       <c r="F86" s="18"/>
       <c r="G86" s="18"/>
       <c r="H86" s="55"/>
@@ -44276,10 +44282,10 @@
       <c r="A88" s="65" t="s">
         <v>373</v>
       </c>
-      <c r="B88" s="298"/>
-      <c r="C88" s="299"/>
-      <c r="D88" s="299"/>
-      <c r="E88" s="300"/>
+      <c r="B88" s="273"/>
+      <c r="C88" s="274"/>
+      <c r="D88" s="274"/>
+      <c r="E88" s="275"/>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="66"/>
@@ -44300,13 +44306,13 @@
       <c r="L89" s="18"/>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="244" t="s">
+      <c r="A90" s="259" t="s">
         <v>290</v>
       </c>
-      <c r="B90" s="273"/>
-      <c r="C90" s="274"/>
-      <c r="D90" s="274"/>
-      <c r="E90" s="275"/>
+      <c r="B90" s="276"/>
+      <c r="C90" s="277"/>
+      <c r="D90" s="277"/>
+      <c r="E90" s="278"/>
       <c r="F90" s="18"/>
       <c r="G90" s="18"/>
       <c r="H90" s="55"/>
@@ -44316,11 +44322,11 @@
       <c r="L90" s="18"/>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="246"/>
-      <c r="B91" s="276"/>
-      <c r="C91" s="277"/>
-      <c r="D91" s="277"/>
-      <c r="E91" s="278"/>
+      <c r="A91" s="260"/>
+      <c r="B91" s="279"/>
+      <c r="C91" s="280"/>
+      <c r="D91" s="280"/>
+      <c r="E91" s="281"/>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
       <c r="H91" s="55"/>
@@ -44340,13 +44346,13 @@
       <c r="L92" s="18"/>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="244" t="s">
+      <c r="A93" s="259" t="s">
         <v>291</v>
       </c>
-      <c r="B93" s="273"/>
-      <c r="C93" s="274"/>
-      <c r="D93" s="274"/>
-      <c r="E93" s="275"/>
+      <c r="B93" s="276"/>
+      <c r="C93" s="277"/>
+      <c r="D93" s="277"/>
+      <c r="E93" s="278"/>
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
       <c r="H93" s="66"/>
@@ -44356,11 +44362,11 @@
       <c r="L93" s="18"/>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="245"/>
-      <c r="B94" s="301"/>
-      <c r="C94" s="302"/>
-      <c r="D94" s="302"/>
-      <c r="E94" s="303"/>
+      <c r="A94" s="265"/>
+      <c r="B94" s="282"/>
+      <c r="C94" s="283"/>
+      <c r="D94" s="283"/>
+      <c r="E94" s="284"/>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
       <c r="H94" s="70"/>
@@ -44370,11 +44376,11 @@
       <c r="L94" s="18"/>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="246"/>
-      <c r="B95" s="276"/>
-      <c r="C95" s="277"/>
-      <c r="D95" s="277"/>
-      <c r="E95" s="278"/>
+      <c r="A95" s="260"/>
+      <c r="B95" s="279"/>
+      <c r="C95" s="280"/>
+      <c r="D95" s="280"/>
+      <c r="E95" s="281"/>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
       <c r="H95" s="18"/>
@@ -44395,13 +44401,13 @@
       <c r="L96" s="18"/>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="268" t="s">
+      <c r="A97" s="230" t="s">
         <v>292</v>
       </c>
-      <c r="B97" s="269"/>
-      <c r="C97" s="269"/>
-      <c r="D97" s="269"/>
-      <c r="E97" s="270"/>
+      <c r="B97" s="231"/>
+      <c r="C97" s="231"/>
+      <c r="D97" s="231"/>
+      <c r="E97" s="232"/>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
       <c r="H97" s="57"/>
@@ -44411,10 +44417,10 @@
       <c r="L97" s="18"/>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="285" t="s">
+      <c r="A98" s="262" t="s">
         <v>293</v>
       </c>
-      <c r="B98" s="286"/>
+      <c r="B98" s="264"/>
       <c r="C98" s="12"/>
       <c r="D98" s="13" t="s">
         <v>294</v>
@@ -44446,10 +44452,10 @@
       <c r="A100" s="74" t="s">
         <v>295</v>
       </c>
-      <c r="B100" s="220"/>
-      <c r="C100" s="221"/>
-      <c r="D100" s="221"/>
-      <c r="E100" s="222"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="218"/>
+      <c r="D100" s="218"/>
+      <c r="E100" s="219"/>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
       <c r="H100" s="55"/>
@@ -44476,10 +44482,10 @@
       <c r="A102" s="74" t="s">
         <v>296</v>
       </c>
-      <c r="B102" s="220"/>
-      <c r="C102" s="221"/>
-      <c r="D102" s="221"/>
-      <c r="E102" s="222"/>
+      <c r="B102" s="217"/>
+      <c r="C102" s="218"/>
+      <c r="D102" s="218"/>
+      <c r="E102" s="219"/>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
       <c r="H102" s="55"/>
@@ -44531,13 +44537,13 @@
       <c r="H105" s="55"/>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="244" t="s">
+      <c r="A106" s="259" t="s">
         <v>299</v>
       </c>
-      <c r="B106" s="220"/>
-      <c r="C106" s="221"/>
-      <c r="D106" s="221"/>
-      <c r="E106" s="222"/>
+      <c r="B106" s="217"/>
+      <c r="C106" s="218"/>
+      <c r="D106" s="218"/>
+      <c r="E106" s="219"/>
       <c r="F106" s="18"/>
       <c r="G106" s="18"/>
       <c r="H106" s="55"/>
@@ -44547,7 +44553,7 @@
       <c r="L106" s="18"/>
     </row>
     <row r="107" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="245"/>
+      <c r="A107" s="265"/>
       <c r="B107" s="76"/>
       <c r="C107" s="77"/>
       <c r="D107" s="75"/>
@@ -44561,11 +44567,11 @@
       <c r="L107" s="18"/>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="246"/>
-      <c r="B108" s="220"/>
-      <c r="C108" s="221"/>
-      <c r="D108" s="221"/>
-      <c r="E108" s="222"/>
+      <c r="A108" s="260"/>
+      <c r="B108" s="217"/>
+      <c r="C108" s="218"/>
+      <c r="D108" s="218"/>
+      <c r="E108" s="219"/>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
       <c r="H108" s="55"/>
@@ -44589,13 +44595,13 @@
       <c r="L109" s="18"/>
     </row>
     <row r="110" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="316" t="s">
+      <c r="A110" s="251" t="s">
         <v>300</v>
       </c>
-      <c r="B110" s="287"/>
-      <c r="C110" s="288"/>
-      <c r="D110" s="288"/>
-      <c r="E110" s="318"/>
+      <c r="B110" s="253"/>
+      <c r="C110" s="254"/>
+      <c r="D110" s="254"/>
+      <c r="E110" s="255"/>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
       <c r="H110" s="55"/>
@@ -44605,11 +44611,11 @@
       <c r="L110" s="18"/>
     </row>
     <row r="111" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="317"/>
-      <c r="B111" s="291"/>
-      <c r="C111" s="292"/>
-      <c r="D111" s="292"/>
-      <c r="E111" s="319"/>
+      <c r="A111" s="252"/>
+      <c r="B111" s="256"/>
+      <c r="C111" s="257"/>
+      <c r="D111" s="257"/>
+      <c r="E111" s="258"/>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
       <c r="H111" s="55"/>
@@ -44624,38 +44630,38 @@
       <c r="E112" s="12"/>
     </row>
     <row r="113" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="244" t="s">
+      <c r="A113" s="259" t="s">
         <v>301</v>
       </c>
-      <c r="B113" s="287"/>
-      <c r="C113" s="288"/>
-      <c r="D113" s="288"/>
-      <c r="E113" s="318"/>
+      <c r="B113" s="253"/>
+      <c r="C113" s="254"/>
+      <c r="D113" s="254"/>
+      <c r="E113" s="255"/>
     </row>
     <row r="114" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="246"/>
-      <c r="B114" s="291"/>
-      <c r="C114" s="292"/>
-      <c r="D114" s="292"/>
-      <c r="E114" s="319"/>
+      <c r="A114" s="260"/>
+      <c r="B114" s="256"/>
+      <c r="C114" s="257"/>
+      <c r="D114" s="257"/>
+      <c r="E114" s="258"/>
     </row>
     <row r="115" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="116" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="320" t="s">
+      <c r="A116" s="261" t="s">
         <v>302</v>
       </c>
-      <c r="B116" s="320"/>
-      <c r="C116" s="320"/>
-      <c r="D116" s="320"/>
-      <c r="E116" s="320"/>
+      <c r="B116" s="261"/>
+      <c r="C116" s="261"/>
+      <c r="D116" s="261"/>
+      <c r="E116" s="261"/>
       <c r="H116" s="78"/>
     </row>
     <row r="117" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="285" t="s">
+      <c r="A117" s="262" t="s">
         <v>303</v>
       </c>
-      <c r="B117" s="321"/>
-      <c r="C117" s="286"/>
+      <c r="B117" s="263"/>
+      <c r="C117" s="264"/>
       <c r="D117" s="13" t="s">
         <v>304</v>
       </c>
@@ -44663,11 +44669,11 @@
       <c r="H117" s="9"/>
     </row>
     <row r="118" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="304"/>
-      <c r="B118" s="305"/>
-      <c r="C118" s="305"/>
-      <c r="D118" s="305"/>
-      <c r="E118" s="306"/>
+      <c r="A118" s="242"/>
+      <c r="B118" s="243"/>
+      <c r="C118" s="243"/>
+      <c r="D118" s="243"/>
+      <c r="E118" s="244"/>
     </row>
     <row r="119" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45" t="s">
@@ -44694,10 +44700,10 @@
       <c r="A121" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="220"/>
-      <c r="C121" s="221"/>
-      <c r="D121" s="221"/>
-      <c r="E121" s="222"/>
+      <c r="B121" s="217"/>
+      <c r="C121" s="218"/>
+      <c r="D121" s="218"/>
+      <c r="E121" s="219"/>
       <c r="H121" s="9"/>
     </row>
     <row r="122" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44743,11 +44749,11 @@
       <c r="H125" s="9"/>
     </row>
     <row r="126" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="307"/>
-      <c r="B126" s="308"/>
-      <c r="C126" s="308"/>
-      <c r="D126" s="308"/>
-      <c r="E126" s="309"/>
+      <c r="A126" s="245"/>
+      <c r="B126" s="246"/>
+      <c r="C126" s="246"/>
+      <c r="D126" s="246"/>
+      <c r="E126" s="247"/>
     </row>
     <row r="127" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45" t="s">
@@ -44774,10 +44780,10 @@
       <c r="A129" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B129" s="220"/>
-      <c r="C129" s="221"/>
-      <c r="D129" s="221"/>
-      <c r="E129" s="222"/>
+      <c r="B129" s="217"/>
+      <c r="C129" s="218"/>
+      <c r="D129" s="218"/>
+      <c r="E129" s="219"/>
       <c r="H129" s="9"/>
     </row>
     <row r="130" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -44823,11 +44829,11 @@
       <c r="H133" s="9"/>
     </row>
     <row r="134" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="310"/>
-      <c r="B134" s="311"/>
-      <c r="C134" s="311"/>
-      <c r="D134" s="311"/>
-      <c r="E134" s="312"/>
+      <c r="A134" s="236"/>
+      <c r="B134" s="237"/>
+      <c r="C134" s="237"/>
+      <c r="D134" s="237"/>
+      <c r="E134" s="238"/>
     </row>
     <row r="135" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="45" t="s">
@@ -44853,10 +44859,10 @@
       <c r="A137" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B137" s="313"/>
-      <c r="C137" s="314"/>
-      <c r="D137" s="314"/>
-      <c r="E137" s="315"/>
+      <c r="B137" s="248"/>
+      <c r="C137" s="249"/>
+      <c r="D137" s="249"/>
+      <c r="E137" s="250"/>
     </row>
     <row r="138" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
@@ -44899,11 +44905,11 @@
       <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="310"/>
-      <c r="B142" s="311"/>
-      <c r="C142" s="311"/>
-      <c r="D142" s="311"/>
-      <c r="E142" s="312"/>
+      <c r="A142" s="236"/>
+      <c r="B142" s="237"/>
+      <c r="C142" s="237"/>
+      <c r="D142" s="237"/>
+      <c r="E142" s="238"/>
     </row>
     <row r="143" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="45" t="s">
@@ -44929,10 +44935,10 @@
       <c r="A145" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B145" s="220"/>
-      <c r="C145" s="221"/>
-      <c r="D145" s="221"/>
-      <c r="E145" s="222"/>
+      <c r="B145" s="217"/>
+      <c r="C145" s="218"/>
+      <c r="D145" s="218"/>
+      <c r="E145" s="219"/>
     </row>
     <row r="146" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="69"/>
@@ -45238,13 +45244,13 @@
       <c r="E182" s="18"/>
     </row>
     <row r="183" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A183" s="250" t="s">
+      <c r="A183" s="239" t="s">
         <v>314</v>
       </c>
-      <c r="B183" s="251"/>
-      <c r="C183" s="251"/>
-      <c r="D183" s="251"/>
-      <c r="E183" s="252"/>
+      <c r="B183" s="240"/>
+      <c r="C183" s="240"/>
+      <c r="D183" s="240"/>
+      <c r="E183" s="241"/>
     </row>
     <row r="184" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="53" t="s">
@@ -45258,20 +45264,20 @@
       <c r="A185" s="83"/>
     </row>
     <row r="186" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="268" t="s">
+      <c r="A186" s="230" t="s">
         <v>317</v>
       </c>
-      <c r="B186" s="269"/>
-      <c r="C186" s="269"/>
-      <c r="D186" s="270"/>
+      <c r="B186" s="231"/>
+      <c r="C186" s="231"/>
+      <c r="D186" s="232"/>
     </row>
     <row r="187" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="325" t="s">
+      <c r="A187" s="226" t="s">
         <v>318</v>
       </c>
-      <c r="B187" s="326"/>
-      <c r="C187" s="326"/>
-      <c r="D187" s="327"/>
+      <c r="B187" s="227"/>
+      <c r="C187" s="227"/>
+      <c r="D187" s="228"/>
     </row>
     <row r="188" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="12"/>
@@ -45280,12 +45286,12 @@
       <c r="D188" s="12"/>
     </row>
     <row r="189" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="325" t="s">
+      <c r="A189" s="226" t="s">
         <v>319</v>
       </c>
-      <c r="B189" s="326"/>
-      <c r="C189" s="326"/>
-      <c r="D189" s="327"/>
+      <c r="B189" s="227"/>
+      <c r="C189" s="227"/>
+      <c r="D189" s="228"/>
     </row>
     <row r="190" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="12"/>
@@ -45297,9 +45303,9 @@
       <c r="A191" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B191" s="220"/>
-      <c r="C191" s="221"/>
-      <c r="D191" s="222"/>
+      <c r="B191" s="217"/>
+      <c r="C191" s="218"/>
+      <c r="D191" s="219"/>
     </row>
     <row r="192" spans="1:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="85"/>
@@ -45308,20 +45314,20 @@
       <c r="D192" s="12"/>
     </row>
     <row r="193" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="322" t="s">
+      <c r="A193" s="233" t="s">
         <v>320</v>
       </c>
-      <c r="B193" s="323"/>
-      <c r="C193" s="323"/>
-      <c r="D193" s="324"/>
+      <c r="B193" s="234"/>
+      <c r="C193" s="234"/>
+      <c r="D193" s="235"/>
     </row>
     <row r="194" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="325" t="s">
+      <c r="A194" s="226" t="s">
         <v>321</v>
       </c>
-      <c r="B194" s="326"/>
-      <c r="C194" s="326"/>
-      <c r="D194" s="327"/>
+      <c r="B194" s="227"/>
+      <c r="C194" s="227"/>
+      <c r="D194" s="228"/>
     </row>
     <row r="195" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="85"/>
@@ -45333,9 +45339,9 @@
       <c r="A196" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B196" s="220"/>
-      <c r="C196" s="221"/>
-      <c r="D196" s="222"/>
+      <c r="B196" s="217"/>
+      <c r="C196" s="218"/>
+      <c r="D196" s="219"/>
     </row>
     <row r="197" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="12"/>
@@ -45344,20 +45350,20 @@
       <c r="D197" s="12"/>
     </row>
     <row r="198" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="268" t="s">
+      <c r="A198" s="230" t="s">
         <v>322</v>
       </c>
-      <c r="B198" s="269"/>
-      <c r="C198" s="269"/>
-      <c r="D198" s="270"/>
+      <c r="B198" s="231"/>
+      <c r="C198" s="231"/>
+      <c r="D198" s="232"/>
     </row>
     <row r="199" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="325" t="s">
+      <c r="A199" s="226" t="s">
         <v>323</v>
       </c>
-      <c r="B199" s="326"/>
-      <c r="C199" s="326"/>
-      <c r="D199" s="327"/>
+      <c r="B199" s="227"/>
+      <c r="C199" s="227"/>
+      <c r="D199" s="228"/>
     </row>
     <row r="200" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="86"/>
@@ -45369,9 +45375,9 @@
       <c r="A201" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B201" s="220"/>
-      <c r="C201" s="221"/>
-      <c r="D201" s="222"/>
+      <c r="B201" s="217"/>
+      <c r="C201" s="218"/>
+      <c r="D201" s="219"/>
     </row>
     <row r="202" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="12"/>
@@ -45380,20 +45386,20 @@
       <c r="D202" s="12"/>
     </row>
     <row r="203" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="268" t="s">
+      <c r="A203" s="230" t="s">
         <v>324</v>
       </c>
-      <c r="B203" s="269"/>
-      <c r="C203" s="269"/>
-      <c r="D203" s="270"/>
+      <c r="B203" s="231"/>
+      <c r="C203" s="231"/>
+      <c r="D203" s="232"/>
     </row>
     <row r="204" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="325" t="s">
+      <c r="A204" s="226" t="s">
         <v>325</v>
       </c>
-      <c r="B204" s="326"/>
-      <c r="C204" s="326"/>
-      <c r="D204" s="327"/>
+      <c r="B204" s="227"/>
+      <c r="C204" s="227"/>
+      <c r="D204" s="228"/>
     </row>
     <row r="205" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="85"/>
@@ -45402,12 +45408,12 @@
       <c r="D205" s="12"/>
     </row>
     <row r="206" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="325" t="s">
+      <c r="A206" s="226" t="s">
         <v>326</v>
       </c>
-      <c r="B206" s="326"/>
-      <c r="C206" s="326"/>
-      <c r="D206" s="327"/>
+      <c r="B206" s="227"/>
+      <c r="C206" s="227"/>
+      <c r="D206" s="228"/>
     </row>
     <row r="207" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="12"/>
@@ -45419,9 +45425,9 @@
       <c r="A208" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B208" s="220"/>
-      <c r="C208" s="221"/>
-      <c r="D208" s="222"/>
+      <c r="B208" s="217"/>
+      <c r="C208" s="218"/>
+      <c r="D208" s="219"/>
     </row>
     <row r="209" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="12"/>
@@ -45430,20 +45436,20 @@
       <c r="D209" s="12"/>
     </row>
     <row r="210" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="268" t="s">
+      <c r="A210" s="230" t="s">
         <v>327</v>
       </c>
-      <c r="B210" s="269"/>
-      <c r="C210" s="269"/>
-      <c r="D210" s="270"/>
+      <c r="B210" s="231"/>
+      <c r="C210" s="231"/>
+      <c r="D210" s="232"/>
     </row>
     <row r="211" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="325" t="s">
+      <c r="A211" s="226" t="s">
         <v>328</v>
       </c>
-      <c r="B211" s="326"/>
-      <c r="C211" s="326"/>
-      <c r="D211" s="327"/>
+      <c r="B211" s="227"/>
+      <c r="C211" s="227"/>
+      <c r="D211" s="228"/>
     </row>
     <row r="212" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="85"/>
@@ -45455,9 +45461,9 @@
       <c r="A213" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B213" s="220"/>
-      <c r="C213" s="221"/>
-      <c r="D213" s="222"/>
+      <c r="B213" s="217"/>
+      <c r="C213" s="218"/>
+      <c r="D213" s="219"/>
     </row>
     <row r="214" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="12"/>
@@ -45466,20 +45472,20 @@
       <c r="D214" s="12"/>
     </row>
     <row r="215" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="268" t="s">
+      <c r="A215" s="230" t="s">
         <v>329</v>
       </c>
-      <c r="B215" s="269"/>
-      <c r="C215" s="269"/>
-      <c r="D215" s="270"/>
+      <c r="B215" s="231"/>
+      <c r="C215" s="231"/>
+      <c r="D215" s="232"/>
     </row>
     <row r="216" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="325" t="s">
+      <c r="A216" s="226" t="s">
         <v>330</v>
       </c>
-      <c r="B216" s="326"/>
-      <c r="C216" s="326"/>
-      <c r="D216" s="327"/>
+      <c r="B216" s="227"/>
+      <c r="C216" s="227"/>
+      <c r="D216" s="228"/>
     </row>
     <row r="217" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="85"/>
@@ -45491,9 +45497,9 @@
       <c r="A218" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B218" s="220"/>
-      <c r="C218" s="221"/>
-      <c r="D218" s="222"/>
+      <c r="B218" s="217"/>
+      <c r="C218" s="218"/>
+      <c r="D218" s="219"/>
     </row>
     <row r="219" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="12"/>
@@ -45502,20 +45508,20 @@
       <c r="D219" s="12"/>
     </row>
     <row r="220" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="268" t="s">
+      <c r="A220" s="230" t="s">
         <v>331</v>
       </c>
-      <c r="B220" s="269"/>
-      <c r="C220" s="269"/>
-      <c r="D220" s="270"/>
+      <c r="B220" s="231"/>
+      <c r="C220" s="231"/>
+      <c r="D220" s="232"/>
     </row>
     <row r="221" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="325" t="s">
+      <c r="A221" s="226" t="s">
         <v>500</v>
       </c>
-      <c r="B221" s="326"/>
-      <c r="C221" s="326"/>
-      <c r="D221" s="327"/>
+      <c r="B221" s="227"/>
+      <c r="C221" s="227"/>
+      <c r="D221" s="228"/>
     </row>
     <row r="222" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="12"/>
@@ -45524,12 +45530,12 @@
       <c r="D222" s="12"/>
     </row>
     <row r="223" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="325" t="s">
+      <c r="A223" s="226" t="s">
         <v>501</v>
       </c>
-      <c r="B223" s="326"/>
-      <c r="C223" s="326"/>
-      <c r="D223" s="327"/>
+      <c r="B223" s="227"/>
+      <c r="C223" s="227"/>
+      <c r="D223" s="228"/>
     </row>
     <row r="224" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="85"/>
@@ -45541,9 +45547,9 @@
       <c r="A225" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="B225" s="220"/>
-      <c r="C225" s="221"/>
-      <c r="D225" s="222"/>
+      <c r="B225" s="217"/>
+      <c r="C225" s="218"/>
+      <c r="D225" s="219"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="12"/>
@@ -45552,13 +45558,13 @@
       <c r="D226" s="12"/>
     </row>
     <row r="230" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A230" s="328" t="s">
+      <c r="A230" s="229" t="s">
         <v>334</v>
       </c>
-      <c r="B230" s="328"/>
-      <c r="C230" s="328"/>
-      <c r="D230" s="328"/>
-      <c r="E230" s="328"/>
+      <c r="B230" s="229"/>
+      <c r="C230" s="229"/>
+      <c r="D230" s="229"/>
+      <c r="E230" s="229"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="87"/>
@@ -45570,9 +45576,9 @@
       <c r="A232" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B232" s="220"/>
-      <c r="C232" s="221"/>
-      <c r="D232" s="222"/>
+      <c r="B232" s="217"/>
+      <c r="C232" s="218"/>
+      <c r="D232" s="219"/>
     </row>
     <row r="233" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
@@ -45584,9 +45590,9 @@
       <c r="A234" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="B234" s="220"/>
-      <c r="C234" s="221"/>
-      <c r="D234" s="222"/>
+      <c r="B234" s="217"/>
+      <c r="C234" s="218"/>
+      <c r="D234" s="219"/>
     </row>
     <row r="235" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
@@ -45598,9 +45604,9 @@
       <c r="A236" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="B236" s="220"/>
-      <c r="C236" s="221"/>
-      <c r="D236" s="222"/>
+      <c r="B236" s="217"/>
+      <c r="C236" s="218"/>
+      <c r="D236" s="219"/>
     </row>
     <row r="237" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
@@ -45612,9 +45618,9 @@
       <c r="A238" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="B238" s="220"/>
-      <c r="C238" s="221"/>
-      <c r="D238" s="222"/>
+      <c r="B238" s="217"/>
+      <c r="C238" s="218"/>
+      <c r="D238" s="219"/>
     </row>
     <row r="239" spans="1:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
@@ -45626,9 +45632,9 @@
       <c r="A240" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B240" s="220"/>
-      <c r="C240" s="221"/>
-      <c r="D240" s="222"/>
+      <c r="B240" s="217"/>
+      <c r="C240" s="218"/>
+      <c r="D240" s="219"/>
     </row>
     <row r="241" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
@@ -45640,9 +45646,9 @@
       <c r="A242" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="B242" s="220"/>
-      <c r="C242" s="221"/>
-      <c r="D242" s="222"/>
+      <c r="B242" s="217"/>
+      <c r="C242" s="218"/>
+      <c r="D242" s="219"/>
     </row>
     <row r="243" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
@@ -45654,9 +45660,9 @@
       <c r="A244" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B244" s="220"/>
-      <c r="C244" s="221"/>
-      <c r="D244" s="222"/>
+      <c r="B244" s="217"/>
+      <c r="C244" s="218"/>
+      <c r="D244" s="219"/>
     </row>
     <row r="245" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
@@ -45668,9 +45674,9 @@
       <c r="A246" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B246" s="220"/>
-      <c r="C246" s="221"/>
-      <c r="D246" s="222"/>
+      <c r="B246" s="217"/>
+      <c r="C246" s="218"/>
+      <c r="D246" s="219"/>
     </row>
     <row r="247" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
@@ -45682,9 +45688,9 @@
       <c r="A248" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B248" s="220"/>
-      <c r="C248" s="221"/>
-      <c r="D248" s="222"/>
+      <c r="B248" s="217"/>
+      <c r="C248" s="218"/>
+      <c r="D248" s="219"/>
     </row>
     <row r="249" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
@@ -45696,9 +45702,9 @@
       <c r="A250" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B250" s="220"/>
-      <c r="C250" s="221"/>
-      <c r="D250" s="222"/>
+      <c r="B250" s="217"/>
+      <c r="C250" s="218"/>
+      <c r="D250" s="219"/>
     </row>
     <row r="251" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
@@ -45710,9 +45716,9 @@
       <c r="A252" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B252" s="220"/>
-      <c r="C252" s="221"/>
-      <c r="D252" s="222"/>
+      <c r="B252" s="217"/>
+      <c r="C252" s="218"/>
+      <c r="D252" s="219"/>
     </row>
     <row r="253" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
@@ -45724,9 +45730,9 @@
       <c r="A254" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B254" s="220"/>
-      <c r="C254" s="221"/>
-      <c r="D254" s="222"/>
+      <c r="B254" s="217"/>
+      <c r="C254" s="218"/>
+      <c r="D254" s="219"/>
     </row>
     <row r="255" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
@@ -45738,9 +45744,9 @@
       <c r="A256" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="B256" s="220"/>
-      <c r="C256" s="221"/>
-      <c r="D256" s="222"/>
+      <c r="B256" s="217"/>
+      <c r="C256" s="218"/>
+      <c r="D256" s="219"/>
     </row>
     <row r="257" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
@@ -45752,9 +45758,9 @@
       <c r="A258" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="B258" s="220"/>
-      <c r="C258" s="221"/>
-      <c r="D258" s="222"/>
+      <c r="B258" s="217"/>
+      <c r="C258" s="218"/>
+      <c r="D258" s="219"/>
     </row>
     <row r="259" spans="1:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
@@ -45766,9 +45772,9 @@
       <c r="A260" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B260" s="220"/>
-      <c r="C260" s="221"/>
-      <c r="D260" s="222"/>
+      <c r="B260" s="217"/>
+      <c r="C260" s="218"/>
+      <c r="D260" s="219"/>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="12"/>
@@ -45825,13 +45831,13 @@
       <c r="D269" s="12"/>
     </row>
     <row r="274" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A274" s="238" t="s">
+      <c r="A274" s="220" t="s">
         <v>349</v>
       </c>
-      <c r="B274" s="239"/>
-      <c r="C274" s="239"/>
-      <c r="D274" s="239"/>
-      <c r="E274" s="240"/>
+      <c r="B274" s="221"/>
+      <c r="C274" s="221"/>
+      <c r="D274" s="221"/>
+      <c r="E274" s="222"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="88"/>
@@ -45840,171 +45846,142 @@
       <c r="D275" s="12"/>
     </row>
     <row r="276" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="241" t="s">
+      <c r="A276" s="223" t="s">
         <v>350</v>
       </c>
-      <c r="B276" s="242"/>
-      <c r="C276" s="242"/>
-      <c r="D276" s="243"/>
+      <c r="B276" s="224"/>
+      <c r="C276" s="224"/>
+      <c r="D276" s="225"/>
       <c r="E276" s="89" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="220"/>
-      <c r="B277" s="221"/>
-      <c r="C277" s="221"/>
-      <c r="D277" s="222"/>
+      <c r="A277" s="217"/>
+      <c r="B277" s="218"/>
+      <c r="C277" s="218"/>
+      <c r="D277" s="219"/>
       <c r="E277" s="51"/>
     </row>
     <row r="278" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="329"/>
-      <c r="B278" s="330"/>
-      <c r="C278" s="330"/>
-      <c r="D278" s="331"/>
+      <c r="A278" s="214"/>
+      <c r="B278" s="215"/>
+      <c r="C278" s="215"/>
+      <c r="D278" s="216"/>
       <c r="E278" s="51"/>
     </row>
     <row r="279" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="329"/>
-      <c r="B279" s="330"/>
-      <c r="C279" s="330"/>
-      <c r="D279" s="331"/>
+      <c r="A279" s="214"/>
+      <c r="B279" s="215"/>
+      <c r="C279" s="215"/>
+      <c r="D279" s="216"/>
       <c r="E279" s="51"/>
     </row>
     <row r="280" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="329"/>
-      <c r="B280" s="330"/>
-      <c r="C280" s="330"/>
-      <c r="D280" s="331"/>
+      <c r="A280" s="214"/>
+      <c r="B280" s="215"/>
+      <c r="C280" s="215"/>
+      <c r="D280" s="216"/>
       <c r="E280" s="51"/>
     </row>
     <row r="281" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="329"/>
-      <c r="B281" s="330"/>
-      <c r="C281" s="330"/>
-      <c r="D281" s="331"/>
+      <c r="A281" s="214"/>
+      <c r="B281" s="215"/>
+      <c r="C281" s="215"/>
+      <c r="D281" s="216"/>
       <c r="E281" s="51"/>
     </row>
     <row r="282" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="329"/>
-      <c r="B282" s="330"/>
-      <c r="C282" s="330"/>
-      <c r="D282" s="331"/>
+      <c r="A282" s="214"/>
+      <c r="B282" s="215"/>
+      <c r="C282" s="215"/>
+      <c r="D282" s="216"/>
       <c r="E282" s="51"/>
     </row>
     <row r="283" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="329"/>
-      <c r="B283" s="330"/>
-      <c r="C283" s="330"/>
-      <c r="D283" s="331"/>
+      <c r="A283" s="214"/>
+      <c r="B283" s="215"/>
+      <c r="C283" s="215"/>
+      <c r="D283" s="216"/>
       <c r="E283" s="51"/>
     </row>
     <row r="284" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="329"/>
-      <c r="B284" s="330"/>
-      <c r="C284" s="330"/>
-      <c r="D284" s="331"/>
+      <c r="A284" s="214"/>
+      <c r="B284" s="215"/>
+      <c r="C284" s="215"/>
+      <c r="D284" s="216"/>
       <c r="E284" s="51"/>
     </row>
     <row r="285" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="329"/>
-      <c r="B285" s="330"/>
-      <c r="C285" s="330"/>
-      <c r="D285" s="331"/>
+      <c r="A285" s="214"/>
+      <c r="B285" s="215"/>
+      <c r="C285" s="215"/>
+      <c r="D285" s="216"/>
       <c r="E285" s="51"/>
     </row>
     <row r="286" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="329"/>
-      <c r="B286" s="330"/>
-      <c r="C286" s="330"/>
-      <c r="D286" s="331"/>
+      <c r="A286" s="214"/>
+      <c r="B286" s="215"/>
+      <c r="C286" s="215"/>
+      <c r="D286" s="216"/>
       <c r="E286" s="51"/>
     </row>
     <row r="287" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="329"/>
-      <c r="B287" s="330"/>
-      <c r="C287" s="330"/>
-      <c r="D287" s="331"/>
+      <c r="A287" s="214"/>
+      <c r="B287" s="215"/>
+      <c r="C287" s="215"/>
+      <c r="D287" s="216"/>
       <c r="E287" s="51"/>
     </row>
     <row r="288" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="329"/>
-      <c r="B288" s="330"/>
-      <c r="C288" s="330"/>
-      <c r="D288" s="331"/>
+      <c r="A288" s="214"/>
+      <c r="B288" s="215"/>
+      <c r="C288" s="215"/>
+      <c r="D288" s="216"/>
       <c r="E288" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A286:D286"/>
-    <mergeCell ref="A287:D287"/>
-    <mergeCell ref="A288:D288"/>
-    <mergeCell ref="A280:D280"/>
-    <mergeCell ref="A281:D281"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A283:D283"/>
-    <mergeCell ref="A284:D284"/>
-    <mergeCell ref="A285:D285"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A276:D276"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="A278:D278"/>
-    <mergeCell ref="A279:D279"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="A215:D215"/>
-    <mergeCell ref="A216:D216"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="A220:D220"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="A203:D203"/>
-    <mergeCell ref="A204:D204"/>
-    <mergeCell ref="A206:D206"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="A210:D210"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="A193:D193"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="A198:D198"/>
-    <mergeCell ref="A199:D199"/>
-    <mergeCell ref="A142:E142"/>
-    <mergeCell ref="B145:E145"/>
-    <mergeCell ref="A183:E183"/>
-    <mergeCell ref="A186:D186"/>
-    <mergeCell ref="A187:D187"/>
-    <mergeCell ref="A189:D189"/>
-    <mergeCell ref="A118:E118"/>
-    <mergeCell ref="B121:E121"/>
-    <mergeCell ref="A126:E126"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="A134:E134"/>
-    <mergeCell ref="B137:E137"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="B110:E111"/>
-    <mergeCell ref="A113:A114"/>
-    <mergeCell ref="B113:E114"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B23:E25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:E29"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A50:E50"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:E52"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A82:E82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:E84"/>
+    <mergeCell ref="A58:A62"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B60:E60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="B100:E100"/>
@@ -46019,46 +45996,75 @@
     <mergeCell ref="B90:E91"/>
     <mergeCell ref="A93:A95"/>
     <mergeCell ref="B93:E95"/>
-    <mergeCell ref="A66:A68"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A82:E82"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:E84"/>
-    <mergeCell ref="A58:A62"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B60:E60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:E52"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B23:E25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="B27:E29"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="A118:E118"/>
+    <mergeCell ref="B121:E121"/>
+    <mergeCell ref="A126:E126"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="A134:E134"/>
+    <mergeCell ref="B137:E137"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="B110:E111"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="B113:E114"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="A193:D193"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="A198:D198"/>
+    <mergeCell ref="A199:D199"/>
+    <mergeCell ref="A142:E142"/>
+    <mergeCell ref="B145:E145"/>
+    <mergeCell ref="A183:E183"/>
+    <mergeCell ref="A186:D186"/>
+    <mergeCell ref="A187:D187"/>
+    <mergeCell ref="A189:D189"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="A215:D215"/>
+    <mergeCell ref="A216:D216"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="A220:D220"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="A203:D203"/>
+    <mergeCell ref="A204:D204"/>
+    <mergeCell ref="A206:D206"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="A210:D210"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="A274:E274"/>
+    <mergeCell ref="A276:D276"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="A278:D278"/>
+    <mergeCell ref="A279:D279"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="A286:D286"/>
+    <mergeCell ref="A287:D287"/>
+    <mergeCell ref="A288:D288"/>
+    <mergeCell ref="A280:D280"/>
+    <mergeCell ref="A281:D281"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A283:D283"/>
+    <mergeCell ref="A284:D284"/>
+    <mergeCell ref="A285:D285"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
